--- a/歌单.xlsx
+++ b/歌单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31391" windowHeight="14400" activeTab="1"/>
+    <workbookView windowWidth="31391" windowHeight="13811" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="男歌手" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="961">
   <si>
     <t>港澳台</t>
   </si>
@@ -632,7 +632,7 @@
     <t>夜的第七章</t>
   </si>
   <si>
-    <t>红眼乳霜</t>
+    <t>红眼如霜</t>
   </si>
   <si>
     <t>告白气球</t>
@@ -2087,7 +2087,7 @@
     <t>一万个舍不得</t>
   </si>
   <si>
-    <t>网红</t>
+    <t>b站抖音等</t>
   </si>
   <si>
     <t>王大毛</t>
@@ -2879,6 +2879,9 @@
     <t>日本</t>
   </si>
   <si>
+    <t>滨崎步</t>
+  </si>
+  <si>
     <t>韩国</t>
   </si>
   <si>
@@ -2892,6 +2895,12 @@
   </si>
   <si>
     <t>She</t>
+  </si>
+  <si>
+    <t>艾薇儿</t>
+  </si>
+  <si>
+    <t>火星哥</t>
   </si>
 </sst>
 </file>
@@ -2904,7 +2913,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2920,13 +2929,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3383,46 +3385,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3434,101 +3439,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3547,43 +3549,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3939,1690 +3914,1687 @@
   <sheetPr/>
   <dimension ref="A1:BE97"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.99115044247788" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.0973451327434" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20.4690265486726" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.1061946902655" style="14" customWidth="1"/>
-    <col min="5" max="5" width="20.4690265486726" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.2743362831858" style="14" customWidth="1"/>
-    <col min="7" max="7" width="16.0442477876106" style="14" customWidth="1"/>
-    <col min="8" max="11" width="11.5044247787611" style="14" customWidth="1"/>
-    <col min="12" max="12" width="20.4690265486726" style="14" customWidth="1"/>
-    <col min="13" max="13" width="9.4070796460177" style="14" customWidth="1"/>
-    <col min="14" max="14" width="11.5044247787611" style="14" customWidth="1"/>
-    <col min="15" max="15" width="13.716814159292" style="14" customWidth="1"/>
-    <col min="16" max="16" width="9.4070796460177" style="14" customWidth="1"/>
-    <col min="17" max="17" width="16.0442477876106" style="14" customWidth="1"/>
-    <col min="18" max="19" width="9.4070796460177" style="14" customWidth="1"/>
-    <col min="20" max="20" width="11.5044247787611" style="14" customWidth="1"/>
-    <col min="21" max="21" width="7.41592920353982" style="14" customWidth="1"/>
-    <col min="22" max="23" width="13.716814159292" style="14" customWidth="1"/>
-    <col min="24" max="24" width="9.4070796460177" style="14" customWidth="1"/>
-    <col min="25" max="25" width="7.41592920353982" style="14" customWidth="1"/>
-    <col min="26" max="26" width="11.5044247787611" style="14" customWidth="1"/>
-    <col min="27" max="31" width="9.4070796460177" style="14" customWidth="1"/>
-    <col min="32" max="32" width="20.4690265486726" style="14" customWidth="1"/>
-    <col min="33" max="33" width="18.2566371681416" style="14" customWidth="1"/>
-    <col min="34" max="34" width="11.5044247787611" style="14" customWidth="1"/>
-    <col min="35" max="35" width="9.4070796460177" style="14" customWidth="1"/>
-    <col min="36" max="37" width="7.41592920353982" style="14" customWidth="1"/>
-    <col min="38" max="38" width="11.5044247787611" style="14" customWidth="1"/>
-    <col min="39" max="39" width="7.41592920353982" style="14" customWidth="1"/>
-    <col min="40" max="40" width="6.53982300884956" style="14" customWidth="1"/>
-    <col min="41" max="41" width="4.53982300884956" style="14" customWidth="1"/>
-    <col min="42" max="42" width="6.53982300884956" style="14" customWidth="1"/>
-    <col min="43" max="43" width="8.53097345132743" style="14" customWidth="1"/>
-    <col min="44" max="44" width="4.53982300884956" style="14" customWidth="1"/>
-    <col min="45" max="46" width="6.53982300884956" style="14" customWidth="1"/>
-    <col min="47" max="47" width="4.53982300884956" style="14" customWidth="1"/>
-    <col min="48" max="49" width="8.53097345132743" style="14" customWidth="1"/>
-    <col min="50" max="50" width="6.53982300884956" style="14" customWidth="1"/>
-    <col min="51" max="53" width="8.53097345132743" style="14" customWidth="1"/>
-    <col min="54" max="54" width="6.64601769911504" style="14" customWidth="1"/>
-    <col min="55" max="56" width="4.53982300884956" style="14" customWidth="1"/>
-    <col min="57" max="57" width="6.53982300884956" style="14" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="7.99115044247788" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.0973451327434" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.4690265486726" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.1061946902655" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.4690265486726" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.2743362831858" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.0442477876106" style="9" customWidth="1"/>
+    <col min="8" max="11" width="11.5044247787611" style="9" customWidth="1"/>
+    <col min="12" max="12" width="20.4690265486726" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.4070796460177" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.5044247787611" style="9" customWidth="1"/>
+    <col min="15" max="15" width="13.716814159292" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.4070796460177" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16.0442477876106" style="9" customWidth="1"/>
+    <col min="18" max="19" width="9.4070796460177" style="9" customWidth="1"/>
+    <col min="20" max="20" width="11.5044247787611" style="9" customWidth="1"/>
+    <col min="21" max="21" width="7.41592920353982" style="9" customWidth="1"/>
+    <col min="22" max="23" width="13.716814159292" style="9" customWidth="1"/>
+    <col min="24" max="24" width="9.4070796460177" style="9" customWidth="1"/>
+    <col min="25" max="25" width="7.41592920353982" style="9" customWidth="1"/>
+    <col min="26" max="26" width="11.5044247787611" style="9" customWidth="1"/>
+    <col min="27" max="31" width="9.4070796460177" style="9" customWidth="1"/>
+    <col min="32" max="32" width="20.4690265486726" style="9" customWidth="1"/>
+    <col min="33" max="33" width="18.2566371681416" style="9" customWidth="1"/>
+    <col min="34" max="34" width="11.5044247787611" style="9" customWidth="1"/>
+    <col min="35" max="35" width="9.4070796460177" style="9" customWidth="1"/>
+    <col min="36" max="37" width="7.41592920353982" style="9" customWidth="1"/>
+    <col min="38" max="38" width="11.5044247787611" style="9" customWidth="1"/>
+    <col min="39" max="39" width="7.41592920353982" style="9" customWidth="1"/>
+    <col min="40" max="40" width="6.53982300884956" style="9" customWidth="1"/>
+    <col min="41" max="41" width="4.53982300884956" style="9" customWidth="1"/>
+    <col min="42" max="42" width="6.53982300884956" style="9" customWidth="1"/>
+    <col min="43" max="43" width="8.53097345132743" style="9" customWidth="1"/>
+    <col min="44" max="44" width="4.53982300884956" style="9" customWidth="1"/>
+    <col min="45" max="46" width="6.53982300884956" style="9" customWidth="1"/>
+    <col min="47" max="47" width="4.53982300884956" style="9" customWidth="1"/>
+    <col min="48" max="49" width="8.53097345132743" style="9" customWidth="1"/>
+    <col min="50" max="50" width="6.53982300884956" style="9" customWidth="1"/>
+    <col min="51" max="53" width="8.53097345132743" style="9" customWidth="1"/>
+    <col min="54" max="54" width="6.64601769911504" style="9" customWidth="1"/>
+    <col min="55" max="56" width="4.53982300884956" style="9" customWidth="1"/>
+    <col min="57" max="57" width="6.53982300884956" style="9" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="15"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="U8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="15"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:57">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="O37" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="14" t="s">
+      <c r="P37" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="Q37" s="14" t="s">
+      <c r="Q37" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="S37" s="14" t="s">
+      <c r="S37" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="T37" s="14" t="s">
+      <c r="T37" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="U37" s="14" t="s">
+      <c r="U37" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="W37" s="14" t="s">
+      <c r="W37" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="X37" s="14" t="s">
+      <c r="X37" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="Y37" s="14" t="s">
+      <c r="Y37" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="Z37" s="14" t="s">
+      <c r="Z37" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="AA37" s="14" t="s">
+      <c r="AA37" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="AB37" s="14" t="s">
+      <c r="AB37" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="AC37" s="14" t="s">
+      <c r="AC37" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="AD37" s="14" t="s">
+      <c r="AD37" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="AE37" s="14" t="s">
+      <c r="AE37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="AF37" s="14" t="s">
+      <c r="AF37" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AG37" s="14" t="s">
+      <c r="AG37" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="AH37" s="14" t="s">
+      <c r="AH37" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="AI37" s="14" t="s">
+      <c r="AI37" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="AJ37" s="14" t="s">
+      <c r="AJ37" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="AK37" s="14" t="s">
+      <c r="AK37" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="AL37" s="14" t="s">
+      <c r="AL37" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="AM37" s="14" t="s">
+      <c r="AM37" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AN37" s="14" t="s">
+      <c r="AN37" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="AO37" s="14" t="s">
+      <c r="AO37" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AP37" s="14" t="s">
+      <c r="AP37" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="AQ37" s="14" t="s">
+      <c r="AQ37" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AR37" s="14" t="s">
+      <c r="AR37" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AS37" s="14" t="s">
+      <c r="AS37" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="AT37" s="14" t="s">
+      <c r="AT37" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AU37" s="14" t="s">
+      <c r="AU37" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AV37" s="14" t="s">
+      <c r="AV37" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AW37" s="14" t="s">
+      <c r="AW37" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="AX37" s="14" t="s">
+      <c r="AX37" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="AY37" s="14" t="s">
+      <c r="AY37" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="AZ37" s="14" t="s">
+      <c r="AZ37" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="BA37" s="14" t="s">
+      <c r="BA37" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="BB37" s="14" t="s">
+      <c r="BB37" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="BC37" s="14" t="s">
+      <c r="BC37" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="BD37" s="14" t="s">
+      <c r="BD37" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="BE37" s="14" t="s">
+      <c r="BE37" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="17"/>
-    </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="9" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="9" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="15"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="9" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="9" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="15"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="15"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="15"/>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="9" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="15"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="15"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="4"/>
+      <c r="B53" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="9" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="15"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="4"/>
+      <c r="B54" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="9" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="15"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="15"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="15"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="4"/>
+      <c r="B57" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="9" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="15"/>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="9" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="15"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F59" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="9" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="15"/>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F60" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="H60" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="I60" s="14" t="s">
+      <c r="I60" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="L60" s="14" t="s">
+      <c r="L60" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="M60" s="14" t="s">
+      <c r="M60" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="N60" s="14" t="s">
+      <c r="N60" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="O60" s="14" t="s">
+      <c r="O60" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="P60" s="14" t="s">
+      <c r="P60" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="Q60" s="14" t="s">
+      <c r="Q60" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="R60" s="14" t="s">
+      <c r="R60" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="S60" s="14" t="s">
+      <c r="S60" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="T60" s="14" t="s">
+      <c r="T60" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="U60" s="14" t="s">
+      <c r="U60" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="V60" s="14" t="s">
+      <c r="V60" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="W60" s="14" t="s">
+      <c r="W60" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="X60" s="14" t="s">
+      <c r="X60" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="Y60" s="14" t="s">
+      <c r="Y60" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="Z60" s="14" t="s">
+      <c r="Z60" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="AA60" s="14" t="s">
+      <c r="AA60" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="AB60" s="14" t="s">
+      <c r="AB60" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="AC60" s="14" t="s">
+      <c r="AC60" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="AD60" s="14" t="s">
+      <c r="AD60" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="AE60" s="14" t="s">
+      <c r="AE60" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="AF60" s="14" t="s">
+      <c r="AF60" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="AG60" s="14" t="s">
+      <c r="AG60" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="AH60" s="14" t="s">
+      <c r="AH60" s="9" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="15"/>
-      <c r="B61" s="18" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="15"/>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="15"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="4"/>
+      <c r="B63" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F63" s="14" t="s">
+      <c r="F63" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="9" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="15"/>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="4"/>
+      <c r="B64" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="9" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="15"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="4"/>
+      <c r="B65" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="4"/>
+      <c r="B70" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="9" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="18" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="9" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="9" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="18" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="9" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="18" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="9" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="9" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="9" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18" t="s">
+      <c r="A79" s="4"/>
+      <c r="B79" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="9" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="18" t="s">
+      <c r="A80" s="4"/>
+      <c r="B80" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="9" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="18" t="s">
+      <c r="A81" s="4"/>
+      <c r="B81" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="9" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="18" t="s">
+      <c r="A82" s="4"/>
+      <c r="B82" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="15"/>
-      <c r="B83" s="18" t="s">
+      <c r="A83" s="4"/>
+      <c r="B83" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="9" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="15"/>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="4"/>
+      <c r="B84" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="9" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="15"/>
-      <c r="B85" s="18" t="s">
+      <c r="A85" s="4"/>
+      <c r="B85" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="9" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="15"/>
-      <c r="B86" s="18" t="s">
+      <c r="A86" s="4"/>
+      <c r="B86" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="9" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="18" t="s">
+      <c r="A87" s="4"/>
+      <c r="B87" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="9" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="19" t="s">
+      <c r="A88" s="4"/>
+      <c r="B88" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="18" t="s">
+      <c r="A89" s="4"/>
+      <c r="B89" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="9" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="15"/>
-      <c r="B90" s="18" t="s">
+      <c r="A90" s="4"/>
+      <c r="B90" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="9" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="4"/>
+      <c r="B91" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="9" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="18" t="s">
+      <c r="A92" s="4"/>
+      <c r="B92" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="9" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="18" t="s">
+      <c r="A93" s="4"/>
+      <c r="B93" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="9" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="18" t="s">
+      <c r="A94" s="4"/>
+      <c r="B94" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="9" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="18" t="s">
+      <c r="A95" s="4"/>
+      <c r="B95" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="9" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="9" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="97" spans="3:3">
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="9" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5646,8 +5618,8 @@
   <sheetPr/>
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6229,7 +6201,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>602</v>
       </c>
@@ -6241,7 +6213,7 @@
       </c>
     </row>
     <row r="32" ht="13" customHeight="1" spans="1:6">
-      <c r="A32" s="6"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>605</v>
       </c>
@@ -6259,7 +6231,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>610</v>
       </c>
@@ -6271,7 +6243,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>613</v>
       </c>
@@ -6286,7 +6258,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>617</v>
       </c>
@@ -6301,7 +6273,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>621</v>
       </c>
@@ -6322,7 +6294,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="6"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>627</v>
       </c>
@@ -6340,7 +6312,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="6"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>632</v>
       </c>
@@ -6355,7 +6327,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>636</v>
       </c>
@@ -6376,7 +6348,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="6"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>642</v>
       </c>
@@ -6391,7 +6363,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>646</v>
       </c>
@@ -6400,7 +6372,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="6"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>648</v>
       </c>
@@ -6415,7 +6387,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>652</v>
       </c>
@@ -6427,7 +6399,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="6"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>655</v>
       </c>
@@ -6460,7 +6432,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
         <v>663</v>
       </c>
@@ -6472,7 +6444,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>666</v>
       </c>
@@ -6484,7 +6456,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>669</v>
       </c>
@@ -6496,7 +6468,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="6"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>672</v>
       </c>
@@ -6511,7 +6483,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="6"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>676</v>
       </c>
@@ -6529,7 +6501,7 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="6"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
         <v>681</v>
       </c>
@@ -6544,7 +6516,7 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="6"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>685</v>
       </c>
@@ -6698,8 +6670,9 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="B65" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5" t="s">
         <v>724</v>
       </c>
       <c r="C65" t="s">
@@ -6709,16 +6682,18 @@
         <v>726</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5" t="s">
         <v>727</v>
       </c>
       <c r="C66" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
-      <c r="B67" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5" t="s">
         <v>729</v>
       </c>
       <c r="C67" t="s">
@@ -6726,7 +6701,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6737,7 +6712,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="13"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="5" t="s">
         <v>733</v>
       </c>
@@ -6746,7 +6721,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="5" t="s">
         <v>735</v>
       </c>
@@ -6755,7 +6730,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="13"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="5" t="s">
         <v>737</v>
       </c>
@@ -6764,7 +6739,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="13"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>739</v>
       </c>
@@ -6773,7 +6748,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="13"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="5" t="s">
         <v>741</v>
       </c>
@@ -6782,7 +6757,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="5" t="s">
         <v>743</v>
       </c>
@@ -6791,7 +6766,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="13"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="5" t="s">
         <v>744</v>
       </c>
@@ -6800,7 +6775,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="13"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="5" t="s">
         <v>746</v>
       </c>
@@ -6809,7 +6784,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="13"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="5" t="s">
         <v>748</v>
       </c>
@@ -6818,7 +6793,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="13"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="5" t="s">
         <v>750</v>
       </c>
@@ -6827,7 +6802,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="13"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="5" t="s">
         <v>752</v>
       </c>
@@ -6836,7 +6811,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="13"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="5" t="s">
         <v>754</v>
       </c>
@@ -6845,7 +6820,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="5" t="s">
         <v>756</v>
       </c>
@@ -6854,7 +6829,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="13"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>758</v>
       </c>
@@ -6863,7 +6838,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="13"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="5" t="s">
         <v>760</v>
       </c>
@@ -6872,7 +6847,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="13"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="5" t="s">
         <v>762</v>
       </c>
@@ -6881,7 +6856,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="5" t="s">
         <v>764</v>
       </c>
@@ -6890,7 +6865,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="13"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="5" t="s">
         <v>766</v>
       </c>
@@ -6899,7 +6874,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="13"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="5" t="s">
         <v>768</v>
       </c>
@@ -6908,7 +6883,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="13"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="5" t="s">
         <v>770</v>
       </c>
@@ -6917,7 +6892,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="13"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="5" t="s">
         <v>772</v>
       </c>
@@ -6926,7 +6901,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="13"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="5" t="s">
         <v>774</v>
       </c>
@@ -6935,7 +6910,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="13"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="5" t="s">
         <v>776</v>
       </c>
@@ -6944,7 +6919,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="13"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="5" t="s">
         <v>22</v>
       </c>
@@ -6953,7 +6928,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="13"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="5" t="s">
         <v>779</v>
       </c>
@@ -6962,7 +6937,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="13"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="5" t="s">
         <v>781</v>
       </c>
@@ -6971,7 +6946,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="13"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="5" t="s">
         <v>783</v>
       </c>
@@ -6980,7 +6955,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="13"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="5" t="s">
         <v>785</v>
       </c>
@@ -6989,14 +6964,14 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="5"/>
       <c r="C99" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="13"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="5" t="s">
         <v>788</v>
       </c>
@@ -7008,7 +6983,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
         <v>791</v>
       </c>
@@ -7017,7 +6992,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="13"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="5" t="s">
         <v>793</v>
       </c>
@@ -7026,7 +7001,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="13"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="5" t="s">
         <v>794</v>
       </c>
@@ -7035,7 +7010,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="13"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="5" t="s">
         <v>796</v>
       </c>
@@ -7044,7 +7019,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="13"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="5" t="s">
         <v>798</v>
       </c>
@@ -7053,7 +7028,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="13"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="5" t="s">
         <v>800</v>
       </c>
@@ -7061,16 +7036,18 @@
         <v>801</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
-      <c r="B107" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="8"/>
+      <c r="B107" s="5" t="s">
         <v>802</v>
       </c>
       <c r="C107" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="B108" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="8"/>
+      <c r="B108" s="5" t="s">
         <v>804</v>
       </c>
       <c r="C108" t="s">
@@ -7081,8 +7058,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:A29"/>
     <mergeCell ref="A31:A51"/>
-    <mergeCell ref="A53:A64"/>
-    <mergeCell ref="A70:A106"/>
+    <mergeCell ref="A53:A67"/>
+    <mergeCell ref="A70:A108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7113,929 +7090,929 @@
     <col min="13" max="13" width="12.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:20">
+    <row r="1" s="5" customFormat="1" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:C23">
@@ -8096,7 +8073,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>896</v>
       </c>
@@ -8105,16 +8082,16 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>899</v>
       </c>
@@ -8123,7 +8100,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>901</v>
       </c>
@@ -8135,7 +8112,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>904</v>
       </c>
@@ -8144,7 +8121,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>906</v>
       </c>
@@ -8153,14 +8130,14 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>909</v>
       </c>
@@ -8169,7 +8146,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>911</v>
       </c>
@@ -8178,29 +8155,29 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
@@ -8214,7 +8191,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>918</v>
       </c>
@@ -8226,7 +8203,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>921</v>
       </c>
@@ -8238,7 +8215,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>924</v>
       </c>
@@ -8250,7 +8227,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>927</v>
       </c>
@@ -8259,7 +8236,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>857</v>
       </c>
@@ -8268,7 +8245,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>928</v>
       </c>
@@ -8277,14 +8254,14 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>930</v>
       </c>
@@ -8293,13 +8270,13 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>933</v>
       </c>
@@ -8308,7 +8285,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>935</v>
       </c>
@@ -8317,7 +8294,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>937</v>
       </c>
@@ -8326,7 +8303,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>939</v>
       </c>
@@ -8338,7 +8315,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>941</v>
       </c>
@@ -8347,7 +8324,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>943</v>
       </c>
@@ -8356,7 +8333,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>945</v>
       </c>
@@ -8368,7 +8345,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>948</v>
       </c>
@@ -8377,16 +8354,16 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
@@ -8445,8 +8422,8 @@
   <sheetPr/>
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
@@ -8459,7 +8436,9 @@
       <c r="A1" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -8699,7 +8678,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8941,7 +8920,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9243,13 +9222,13 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -9279,7 +9258,9 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -9309,7 +9290,9 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>960</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>

--- a/歌单.xlsx
+++ b/歌单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31391" windowHeight="13811" activeTab="4"/>
+    <workbookView windowWidth="31391" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="男歌手" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="961">
-  <si>
-    <t>港澳台</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="982">
+  <si>
+    <t>港台</t>
   </si>
   <si>
     <t>Tank</t>
@@ -32,6 +32,9 @@
     <t>千年泪</t>
   </si>
   <si>
+    <t>如果我变成回忆</t>
+  </si>
+  <si>
     <t>阿杜</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>他一定很爱你</t>
   </si>
   <si>
+    <t>撕夜</t>
+  </si>
+  <si>
     <t>陈奕迅</t>
   </si>
   <si>
@@ -50,9 +56,6 @@
     <t>十年</t>
   </si>
   <si>
-    <t>孤勇者</t>
-  </si>
-  <si>
     <t>单车</t>
   </si>
   <si>
@@ -71,6 +74,12 @@
     <t>因为爱情</t>
   </si>
   <si>
+    <t>不要说话</t>
+  </si>
+  <si>
+    <t>红玫瑰</t>
+  </si>
+  <si>
     <t>古巨基</t>
   </si>
   <si>
@@ -170,6 +179,9 @@
     <t>可惜没如果</t>
   </si>
   <si>
+    <t>杀手</t>
+  </si>
+  <si>
     <t>林宥嘉</t>
   </si>
   <si>
@@ -884,483 +896,492 @@
     <t>一荤一素</t>
   </si>
   <si>
+    <t>朴树</t>
+  </si>
+  <si>
+    <t>平凡之路</t>
+  </si>
+  <si>
+    <t>那些花儿</t>
+  </si>
+  <si>
+    <t>new boy</t>
+  </si>
+  <si>
+    <t>宋冬野</t>
+  </si>
+  <si>
+    <t>董小姐</t>
+  </si>
+  <si>
+    <t>斑马斑马</t>
+  </si>
+  <si>
+    <t>孙楠</t>
+  </si>
+  <si>
+    <t>拯救</t>
+  </si>
+  <si>
+    <t>美丽的神话</t>
+  </si>
+  <si>
+    <t>屠洪刚</t>
+  </si>
+  <si>
+    <t>霸王别姬</t>
+  </si>
+  <si>
+    <t>你</t>
+  </si>
+  <si>
+    <t>精忠报国</t>
+  </si>
+  <si>
+    <t>江山无限</t>
+  </si>
+  <si>
+    <t>风云</t>
+  </si>
+  <si>
+    <t>汪苏泷</t>
+  </si>
+  <si>
+    <t>不分手的恋爱</t>
+  </si>
+  <si>
+    <t>有点甜</t>
+  </si>
+  <si>
+    <t>一笑倾城</t>
+  </si>
+  <si>
+    <t>小星星</t>
+  </si>
+  <si>
+    <t>后会无期</t>
+  </si>
+  <si>
+    <t>万有引力</t>
+  </si>
+  <si>
+    <t>三国杀</t>
+  </si>
+  <si>
+    <t>风度</t>
+  </si>
+  <si>
+    <t>埋葬冬天</t>
+  </si>
+  <si>
+    <t>小沈阳</t>
+  </si>
+  <si>
+    <t>大笑江湖</t>
+  </si>
+  <si>
+    <t>我的好兄弟</t>
+  </si>
+  <si>
+    <t>你懂得</t>
+  </si>
+  <si>
+    <t>徐良</t>
+  </si>
+  <si>
+    <t>坏女孩</t>
+  </si>
+  <si>
+    <t>犯贱</t>
+  </si>
+  <si>
+    <t>客官不可以</t>
+  </si>
+  <si>
+    <t>红装</t>
+  </si>
+  <si>
+    <t>七秒钟的记忆</t>
+  </si>
+  <si>
+    <t>他的猫</t>
+  </si>
+  <si>
+    <t>许嵩</t>
+  </si>
+  <si>
+    <t>有何不可</t>
+  </si>
+  <si>
+    <t>素颜</t>
+  </si>
+  <si>
+    <t>庐州月</t>
+  </si>
+  <si>
+    <t>如果当时</t>
+  </si>
+  <si>
+    <t>玫瑰花的葬礼</t>
+  </si>
+  <si>
+    <t>清明雨上</t>
+  </si>
+  <si>
+    <t>多余的解释</t>
+  </si>
+  <si>
+    <t>雅俗共赏</t>
+  </si>
+  <si>
+    <t>灰色头像</t>
+  </si>
+  <si>
+    <t>天龙八部之宿敌</t>
+  </si>
+  <si>
+    <t>断桥残雪</t>
+  </si>
+  <si>
+    <t>幻听</t>
+  </si>
+  <si>
+    <t>昨夜书</t>
+  </si>
+  <si>
+    <t>千百度</t>
+  </si>
+  <si>
+    <t>半城烟沙</t>
+  </si>
+  <si>
+    <t>惊鸿一面</t>
+  </si>
+  <si>
+    <t>你若成风</t>
+  </si>
+  <si>
+    <t>山水之间</t>
+  </si>
+  <si>
+    <t>燕归巢</t>
+  </si>
+  <si>
+    <t>想象之中</t>
+  </si>
+  <si>
+    <t>城府</t>
+  </si>
+  <si>
+    <t>认错</t>
+  </si>
+  <si>
+    <t>拆东墙</t>
+  </si>
+  <si>
+    <t>叹服</t>
+  </si>
+  <si>
+    <t>情侣装</t>
+  </si>
+  <si>
+    <t>微博控</t>
+  </si>
+  <si>
+    <t>全球变冷</t>
+  </si>
+  <si>
+    <t>规章动物</t>
+  </si>
+  <si>
+    <t>南山忆</t>
+  </si>
+  <si>
+    <t>小烦恼没什么大不了</t>
+  </si>
+  <si>
+    <t>大千世界</t>
+  </si>
+  <si>
+    <t>弹指一挥间</t>
+  </si>
+  <si>
+    <t>许巍</t>
+  </si>
+  <si>
+    <t>蓝莲花</t>
+  </si>
+  <si>
+    <t>像风一样自由</t>
+  </si>
+  <si>
+    <t>生活不止眼前的苟且</t>
+  </si>
+  <si>
+    <t>曾经的你</t>
+  </si>
+  <si>
+    <t>薛之谦</t>
+  </si>
+  <si>
+    <t>演员</t>
+  </si>
+  <si>
+    <t>认真的雪</t>
+  </si>
+  <si>
+    <t>动物世界</t>
+  </si>
+  <si>
+    <t>丑八怪</t>
+  </si>
+  <si>
+    <t>张杰</t>
+  </si>
+  <si>
+    <t>逆战</t>
+  </si>
+  <si>
+    <t>这就是爱</t>
+  </si>
+  <si>
+    <t>天下</t>
+  </si>
+  <si>
+    <t>少年中国说</t>
+  </si>
+  <si>
+    <t>雪龙吟</t>
+  </si>
+  <si>
+    <t>赵雷</t>
+  </si>
+  <si>
+    <t>画</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>南方姑娘</t>
+  </si>
+  <si>
+    <t>郑源</t>
+  </si>
+  <si>
+    <t>一万个理由</t>
+  </si>
+  <si>
+    <t>不要在我寂寞的时候说爱我</t>
+  </si>
+  <si>
+    <t>幸福恋人</t>
+  </si>
+  <si>
+    <t>周深</t>
+  </si>
+  <si>
+    <t>大鱼</t>
+  </si>
+  <si>
+    <t>达拉崩吧</t>
+  </si>
+  <si>
+    <t>单曲</t>
+  </si>
+  <si>
+    <t>陈势安</t>
+  </si>
+  <si>
+    <t>天后</t>
+  </si>
+  <si>
+    <t>杜德伟</t>
+  </si>
+  <si>
+    <t>迪克牛仔</t>
+  </si>
+  <si>
+    <t>有多少爱可以重来</t>
+  </si>
+  <si>
+    <t>曹格</t>
+  </si>
+  <si>
+    <t>梁山伯与朱丽叶</t>
+  </si>
+  <si>
+    <t>林子祥</t>
+  </si>
+  <si>
+    <t>敢爱敢做</t>
+  </si>
+  <si>
+    <t>吴青峰</t>
+  </si>
+  <si>
+    <t>起风了</t>
+  </si>
+  <si>
+    <t>许绍洋</t>
+  </si>
+  <si>
+    <t>花香</t>
+  </si>
+  <si>
+    <t>许冠杰</t>
+  </si>
+  <si>
+    <t>天才白痴梦</t>
+  </si>
+  <si>
+    <t>郑中基</t>
+  </si>
+  <si>
+    <t>无赖</t>
+  </si>
+  <si>
+    <t>戴荃</t>
+  </si>
+  <si>
+    <t>悟空</t>
+  </si>
+  <si>
+    <t>张远</t>
+  </si>
+  <si>
+    <t>嘉宾</t>
+  </si>
+  <si>
+    <t>赵英俊</t>
+  </si>
+  <si>
+    <t>大王让我来巡山</t>
+  </si>
+  <si>
+    <t>沙宝亮</t>
+  </si>
+  <si>
+    <t>暗香</t>
+  </si>
+  <si>
+    <t>赵照</t>
+  </si>
+  <si>
+    <t>当你老了</t>
+  </si>
+  <si>
+    <t>谢帝</t>
+  </si>
+  <si>
+    <t>老子明天不上班</t>
+  </si>
+  <si>
+    <t>王铮亮</t>
+  </si>
+  <si>
+    <t>时间都去哪了</t>
+  </si>
+  <si>
+    <t>五音jw</t>
+  </si>
+  <si>
+    <t>明月天涯</t>
+  </si>
+  <si>
+    <t>伍思凯</t>
+  </si>
+  <si>
+    <t>特别的爱给特别的你</t>
+  </si>
+  <si>
+    <t>海伦</t>
+  </si>
+  <si>
+    <t>走卒</t>
+  </si>
+  <si>
+    <t>崔开潮</t>
+  </si>
+  <si>
+    <t>声声慢</t>
+  </si>
+  <si>
+    <t>刘胡轶</t>
+  </si>
+  <si>
+    <t>从前慢</t>
+  </si>
+  <si>
+    <t>黄品源</t>
+  </si>
+  <si>
+    <t>你怎么舍得我难过</t>
+  </si>
+  <si>
+    <t>郑浩</t>
+  </si>
+  <si>
+    <t>须尽欢</t>
+  </si>
+  <si>
+    <t>王晓天</t>
+  </si>
+  <si>
+    <t>再见吧，喵小姐</t>
+  </si>
+  <si>
+    <t>刘潼</t>
+  </si>
+  <si>
+    <t>等风来</t>
+  </si>
+  <si>
+    <t>陈小春</t>
+  </si>
+  <si>
+    <t>独家记忆</t>
+  </si>
+  <si>
+    <t>徐誉滕</t>
+  </si>
+  <si>
+    <t>等一分钟</t>
+  </si>
+  <si>
+    <t>郭顶</t>
+  </si>
+  <si>
+    <t>水星记</t>
+  </si>
+  <si>
+    <t>李行亮</t>
+  </si>
+  <si>
+    <t>愿得一人心</t>
+  </si>
+  <si>
+    <t>南山南</t>
+  </si>
+  <si>
+    <t>黄义达</t>
+  </si>
+  <si>
+    <t>那女孩对我说</t>
+  </si>
+  <si>
     <t>欧得洋</t>
   </si>
   <si>
     <t>孤单北半球</t>
   </si>
   <si>
+    <t>张栋梁</t>
+  </si>
+  <si>
     <t>当你孤单你会想起谁</t>
   </si>
   <si>
-    <t>朴树</t>
-  </si>
-  <si>
-    <t>平凡之路</t>
-  </si>
-  <si>
-    <t>那些花儿</t>
-  </si>
-  <si>
-    <t>newboy</t>
-  </si>
-  <si>
-    <t>宋冬野</t>
-  </si>
-  <si>
-    <t>董小姐</t>
-  </si>
-  <si>
-    <t>斑马斑马</t>
-  </si>
-  <si>
-    <t>孙楠</t>
-  </si>
-  <si>
-    <t>拯救</t>
-  </si>
-  <si>
-    <t>美丽的神话</t>
-  </si>
-  <si>
-    <t>屠洪刚</t>
-  </si>
-  <si>
-    <t>霸王别姬</t>
-  </si>
-  <si>
-    <t>你</t>
-  </si>
-  <si>
-    <t>精忠报国</t>
-  </si>
-  <si>
-    <t>江山无限</t>
-  </si>
-  <si>
-    <t>风云</t>
-  </si>
-  <si>
-    <t>汪苏泷</t>
-  </si>
-  <si>
-    <t>不分手的恋爱</t>
-  </si>
-  <si>
-    <t>有点甜</t>
-  </si>
-  <si>
-    <t>一笑倾城</t>
-  </si>
-  <si>
-    <t>小星星</t>
-  </si>
-  <si>
-    <t>后会无期</t>
-  </si>
-  <si>
-    <t>万有引力</t>
-  </si>
-  <si>
-    <t>三国杀</t>
-  </si>
-  <si>
-    <t>风度</t>
-  </si>
-  <si>
-    <t>埋葬冬天</t>
-  </si>
-  <si>
-    <t>小沈阳</t>
-  </si>
-  <si>
-    <t>大笑江湖</t>
-  </si>
-  <si>
-    <t>我的好兄弟</t>
-  </si>
-  <si>
-    <t>你懂得</t>
-  </si>
-  <si>
-    <t>徐良</t>
-  </si>
-  <si>
-    <t>坏女孩</t>
-  </si>
-  <si>
-    <t>犯贱</t>
-  </si>
-  <si>
-    <t>客官不可以</t>
-  </si>
-  <si>
-    <t>红装</t>
-  </si>
-  <si>
-    <t>七秒钟的记忆</t>
-  </si>
-  <si>
-    <t>他的猫</t>
-  </si>
-  <si>
-    <t>许嵩</t>
-  </si>
-  <si>
-    <t>有何不可</t>
-  </si>
-  <si>
-    <t>素颜</t>
-  </si>
-  <si>
-    <t>庐州月</t>
-  </si>
-  <si>
-    <t>如果当时</t>
-  </si>
-  <si>
-    <t>玫瑰花的葬礼</t>
-  </si>
-  <si>
-    <t>清明雨上</t>
-  </si>
-  <si>
-    <t>多余的解释</t>
-  </si>
-  <si>
-    <t>雅俗共赏</t>
-  </si>
-  <si>
-    <t>灰色头像</t>
-  </si>
-  <si>
-    <t>天龙八部之宿敌</t>
-  </si>
-  <si>
-    <t>断桥残雪</t>
-  </si>
-  <si>
-    <t>幻听</t>
-  </si>
-  <si>
-    <t>昨夜书</t>
-  </si>
-  <si>
-    <t>千百度</t>
-  </si>
-  <si>
-    <t>半城烟沙</t>
-  </si>
-  <si>
-    <t>惊鸿一面</t>
-  </si>
-  <si>
-    <t>你若成风</t>
-  </si>
-  <si>
-    <t>山水之间</t>
-  </si>
-  <si>
-    <t>燕归巢</t>
-  </si>
-  <si>
-    <t>想象之中</t>
-  </si>
-  <si>
-    <t>城府</t>
-  </si>
-  <si>
-    <t>认错</t>
-  </si>
-  <si>
-    <t>拆东墙</t>
-  </si>
-  <si>
-    <t>叹服</t>
-  </si>
-  <si>
-    <t>情侣装</t>
-  </si>
-  <si>
-    <t>微博控</t>
-  </si>
-  <si>
-    <t>全球变冷</t>
-  </si>
-  <si>
-    <t>规章动物</t>
-  </si>
-  <si>
-    <t>南山忆</t>
-  </si>
-  <si>
-    <t>小烦恼没什么大不了</t>
-  </si>
-  <si>
-    <t>大千世界</t>
-  </si>
-  <si>
-    <t>弹指一挥间</t>
-  </si>
-  <si>
-    <t>许巍</t>
-  </si>
-  <si>
-    <t>蓝莲花</t>
-  </si>
-  <si>
-    <t>像风一样自由</t>
-  </si>
-  <si>
-    <t>生活不止眼前的苟且</t>
-  </si>
-  <si>
-    <t>曾经的你</t>
-  </si>
-  <si>
-    <t>薛之谦</t>
-  </si>
-  <si>
-    <t>演员</t>
-  </si>
-  <si>
-    <t>认真的雪</t>
-  </si>
-  <si>
-    <t>动物世界</t>
-  </si>
-  <si>
-    <t>丑八怪</t>
-  </si>
-  <si>
-    <t>张杰</t>
-  </si>
-  <si>
-    <t>逆战</t>
-  </si>
-  <si>
-    <t>这就是爱</t>
-  </si>
-  <si>
-    <t>天下</t>
-  </si>
-  <si>
-    <t>少年中国说</t>
-  </si>
-  <si>
-    <t>雪龙吟</t>
-  </si>
-  <si>
-    <t>赵雷</t>
-  </si>
-  <si>
-    <t>画</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>南方姑娘</t>
-  </si>
-  <si>
-    <t>郑源</t>
-  </si>
-  <si>
-    <t>一万个理由</t>
-  </si>
-  <si>
-    <t>不要在我寂寞的时候说爱我</t>
-  </si>
-  <si>
-    <t>幸福恋人</t>
-  </si>
-  <si>
-    <t>周深</t>
-  </si>
-  <si>
-    <t>大鱼</t>
-  </si>
-  <si>
-    <t>达拉崩吧</t>
-  </si>
-  <si>
-    <t>单曲</t>
-  </si>
-  <si>
-    <t>陈势安</t>
-  </si>
-  <si>
-    <t>天后</t>
-  </si>
-  <si>
-    <t>杜德伟</t>
-  </si>
-  <si>
-    <t>迪克牛仔</t>
-  </si>
-  <si>
-    <t>有多少爱可以重来</t>
-  </si>
-  <si>
-    <t>曹格</t>
-  </si>
-  <si>
-    <t>梁山伯与朱丽叶</t>
-  </si>
-  <si>
-    <t>林子祥</t>
-  </si>
-  <si>
-    <t>敢爱敢做</t>
-  </si>
-  <si>
-    <t>吴青峰</t>
-  </si>
-  <si>
-    <t>起风了</t>
-  </si>
-  <si>
-    <t>许绍洋</t>
-  </si>
-  <si>
-    <t>花香</t>
-  </si>
-  <si>
-    <t>许冠杰</t>
-  </si>
-  <si>
-    <t>天才白痴梦</t>
-  </si>
-  <si>
-    <t>郑中基</t>
-  </si>
-  <si>
-    <t>无赖</t>
-  </si>
-  <si>
-    <t>戴荃</t>
-  </si>
-  <si>
-    <t>悟空</t>
-  </si>
-  <si>
-    <t>张远</t>
-  </si>
-  <si>
-    <t>嘉宾</t>
-  </si>
-  <si>
-    <t>赵英俊</t>
-  </si>
-  <si>
-    <t>大王让我来巡山</t>
-  </si>
-  <si>
-    <t>沙宝亮</t>
-  </si>
-  <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>赵照</t>
-  </si>
-  <si>
-    <t>当你老了</t>
-  </si>
-  <si>
-    <t>谢帝</t>
-  </si>
-  <si>
-    <t>老子明天不上班</t>
-  </si>
-  <si>
-    <t>王铮亮</t>
-  </si>
-  <si>
-    <t>时间都去哪了</t>
-  </si>
-  <si>
-    <t>五音jw</t>
-  </si>
-  <si>
-    <t>明月天涯</t>
-  </si>
-  <si>
-    <t>伍思凯</t>
-  </si>
-  <si>
-    <t>特别的爱给特别的你</t>
-  </si>
-  <si>
-    <t>海伦</t>
-  </si>
-  <si>
-    <t>走卒</t>
-  </si>
-  <si>
-    <t>崔开潮</t>
-  </si>
-  <si>
-    <t>声声慢</t>
-  </si>
-  <si>
-    <t>刘胡轶</t>
-  </si>
-  <si>
-    <t>从前慢</t>
-  </si>
-  <si>
-    <t>黄品源</t>
-  </si>
-  <si>
-    <t>你怎么舍得我难过</t>
-  </si>
-  <si>
-    <t>郑浩</t>
-  </si>
-  <si>
-    <t>须尽欢</t>
-  </si>
-  <si>
-    <t>王晓天</t>
-  </si>
-  <si>
-    <t>再见吧，喵小姐</t>
-  </si>
-  <si>
-    <t>刘潼</t>
-  </si>
-  <si>
-    <t>等风来</t>
-  </si>
-  <si>
-    <t>陈小春</t>
-  </si>
-  <si>
-    <t>独家记忆</t>
-  </si>
-  <si>
-    <t>徐誉滕</t>
-  </si>
-  <si>
-    <t>等一分钟</t>
-  </si>
-  <si>
-    <t>郭顶</t>
-  </si>
-  <si>
-    <t>水星记</t>
-  </si>
-  <si>
-    <t>李行亮</t>
-  </si>
-  <si>
-    <t>愿得一人心</t>
-  </si>
-  <si>
-    <t>南山南</t>
-  </si>
-  <si>
     <t>阿桑</t>
   </si>
   <si>
@@ -1751,6 +1772,9 @@
     <t>U make me wanna</t>
   </si>
   <si>
+    <t>一个人的精彩</t>
+  </si>
+  <si>
     <t>徐怀钰</t>
   </si>
   <si>
@@ -2207,6 +2231,9 @@
     <t>不谓侠</t>
   </si>
   <si>
+    <t>杏花弦外雨</t>
+  </si>
+  <si>
     <t>肥皂菌</t>
   </si>
   <si>
@@ -2252,6 +2279,9 @@
     <t>海楠</t>
   </si>
   <si>
+    <t>爱啦啦</t>
+  </si>
+  <si>
     <t>许茹芸</t>
   </si>
   <si>
@@ -2438,6 +2468,36 @@
     <t>爸爸妈妈</t>
   </si>
   <si>
+    <t>李丽芬</t>
+  </si>
+  <si>
+    <t>爱江山更爱美人</t>
+  </si>
+  <si>
+    <t>彭佳慧</t>
+  </si>
+  <si>
+    <t>相见恨晚</t>
+  </si>
+  <si>
+    <t>阿YueYue</t>
+  </si>
+  <si>
+    <t>云与海</t>
+  </si>
+  <si>
+    <t>程响</t>
+  </si>
+  <si>
+    <t>世界这么大还是遇见你</t>
+  </si>
+  <si>
+    <t>李殊</t>
+  </si>
+  <si>
+    <t>烟雨唱扬州</t>
+  </si>
+  <si>
     <t>beyond</t>
   </si>
   <si>
@@ -2510,9 +2570,6 @@
     <t>云烟成雨</t>
   </si>
   <si>
-    <t>new boy</t>
-  </si>
-  <si>
     <t>飞儿乐团</t>
   </si>
   <si>
@@ -2648,6 +2705,9 @@
     <t>伤心的人别听慢歌</t>
   </si>
   <si>
+    <t>温柔</t>
+  </si>
+  <si>
     <t>小虎队</t>
   </si>
   <si>
@@ -2744,9 +2804,6 @@
     <t>向天再借五百年</t>
   </si>
   <si>
-    <t>爱江山更爱美人</t>
-  </si>
-  <si>
     <t>乌龙闯情关</t>
   </si>
   <si>
@@ -2765,6 +2822,9 @@
     <t>Jami soul she</t>
   </si>
   <si>
+    <t>孝庄秘史</t>
+  </si>
+  <si>
     <t>动漫</t>
   </si>
   <si>
@@ -2901,6 +2961,9 @@
   </si>
   <si>
     <t>火星哥</t>
+  </si>
+  <si>
+    <t>The day you went away</t>
   </si>
 </sst>
 </file>
@@ -3080,12 +3143,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3388,10 +3457,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3400,16 +3469,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3421,10 +3490,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3445,28 +3514,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3475,19 +3544,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3499,38 +3565,41 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3555,13 +3624,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3912,1690 +3993,1717 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BE97"/>
+  <dimension ref="A1:BE99"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Z40" sqref="Z40"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.99115044247788" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.0973451327434" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.4690265486726" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.1061946902655" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.4690265486726" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.2743362831858" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.0442477876106" style="9" customWidth="1"/>
-    <col min="8" max="11" width="11.5044247787611" style="9" customWidth="1"/>
-    <col min="12" max="12" width="20.4690265486726" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.4070796460177" style="9" customWidth="1"/>
-    <col min="14" max="14" width="11.5044247787611" style="9" customWidth="1"/>
-    <col min="15" max="15" width="13.716814159292" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.4070796460177" style="9" customWidth="1"/>
-    <col min="17" max="17" width="16.0442477876106" style="9" customWidth="1"/>
-    <col min="18" max="19" width="9.4070796460177" style="9" customWidth="1"/>
-    <col min="20" max="20" width="11.5044247787611" style="9" customWidth="1"/>
-    <col min="21" max="21" width="7.41592920353982" style="9" customWidth="1"/>
-    <col min="22" max="23" width="13.716814159292" style="9" customWidth="1"/>
-    <col min="24" max="24" width="9.4070796460177" style="9" customWidth="1"/>
-    <col min="25" max="25" width="7.41592920353982" style="9" customWidth="1"/>
-    <col min="26" max="26" width="11.5044247787611" style="9" customWidth="1"/>
-    <col min="27" max="31" width="9.4070796460177" style="9" customWidth="1"/>
-    <col min="32" max="32" width="20.4690265486726" style="9" customWidth="1"/>
-    <col min="33" max="33" width="18.2566371681416" style="9" customWidth="1"/>
-    <col min="34" max="34" width="11.5044247787611" style="9" customWidth="1"/>
-    <col min="35" max="35" width="9.4070796460177" style="9" customWidth="1"/>
-    <col min="36" max="37" width="7.41592920353982" style="9" customWidth="1"/>
-    <col min="38" max="38" width="11.5044247787611" style="9" customWidth="1"/>
-    <col min="39" max="39" width="7.41592920353982" style="9" customWidth="1"/>
-    <col min="40" max="40" width="6.53982300884956" style="9" customWidth="1"/>
-    <col min="41" max="41" width="4.53982300884956" style="9" customWidth="1"/>
-    <col min="42" max="42" width="6.53982300884956" style="9" customWidth="1"/>
-    <col min="43" max="43" width="8.53097345132743" style="9" customWidth="1"/>
-    <col min="44" max="44" width="4.53982300884956" style="9" customWidth="1"/>
-    <col min="45" max="46" width="6.53982300884956" style="9" customWidth="1"/>
-    <col min="47" max="47" width="4.53982300884956" style="9" customWidth="1"/>
-    <col min="48" max="49" width="8.53097345132743" style="9" customWidth="1"/>
-    <col min="50" max="50" width="6.53982300884956" style="9" customWidth="1"/>
-    <col min="51" max="53" width="8.53097345132743" style="9" customWidth="1"/>
-    <col min="54" max="54" width="6.64601769911504" style="9" customWidth="1"/>
-    <col min="55" max="56" width="4.53982300884956" style="9" customWidth="1"/>
-    <col min="57" max="57" width="6.53982300884956" style="9" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="7.99115044247788" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.0973451327434" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.1061946902655" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.2743362831858" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.0442477876106" style="12" customWidth="1"/>
+    <col min="8" max="11" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="12" max="12" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="14" max="14" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="15" max="15" width="13.716814159292" style="12" customWidth="1"/>
+    <col min="16" max="16" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="17" max="17" width="16.0442477876106" style="12" customWidth="1"/>
+    <col min="18" max="19" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="20" max="20" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="21" max="21" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="22" max="23" width="13.716814159292" style="12" customWidth="1"/>
+    <col min="24" max="24" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="25" max="25" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="26" max="26" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="27" max="31" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="32" max="32" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="33" max="33" width="18.2566371681416" style="12" customWidth="1"/>
+    <col min="34" max="34" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="35" max="35" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="36" max="37" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="38" max="38" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="39" max="39" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="40" max="40" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="41" max="41" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="42" max="42" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="43" max="43" width="8.53097345132743" style="12" customWidth="1"/>
+    <col min="44" max="44" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="45" max="46" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="47" max="47" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="48" max="49" width="8.53097345132743" style="12" customWidth="1"/>
+    <col min="50" max="50" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="51" max="53" width="8.53097345132743" style="12" customWidth="1"/>
+    <col min="54" max="54" width="6.64601769911504" style="12" customWidth="1"/>
+    <col min="55" max="56" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="57" max="57" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4"/>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="B7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="4"/>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="H8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="I8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="K8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="L8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="M8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="N8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="O8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="P8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="Q8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="R8" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4"/>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>52</v>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>55</v>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4"/>
-      <c r="B11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>63</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
-      <c r="B12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>67</v>
+      <c r="B12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>70</v>
+      <c r="B13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4"/>
-      <c r="B14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="C15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="D15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="F15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="G15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="H15" s="12" t="s">
         <v>87</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>90</v>
+      <c r="B16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>97</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4"/>
-      <c r="B18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>102</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="C19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="E19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="F19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="G19" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="H19" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="I19" s="12" t="s">
         <v>114</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>118</v>
+      <c r="B20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>122</v>
+      <c r="B21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
-      <c r="B22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>125</v>
+      <c r="B22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
-      <c r="B23" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>129</v>
+      <c r="B23" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
-      <c r="B24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>133</v>
+      <c r="B24" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4"/>
-      <c r="B25" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>136</v>
+      <c r="B25" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4"/>
-      <c r="B26" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>139</v>
+      <c r="B26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
-      <c r="B27" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>28</v>
+      <c r="B27" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
-      <c r="B28" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>146</v>
+      <c r="B28" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4"/>
-      <c r="B29" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>149</v>
+      <c r="B29" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4"/>
-      <c r="B30" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>152</v>
+      <c r="B30" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
-      <c r="B31" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>155</v>
+      <c r="B31" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4"/>
-      <c r="B32" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="B32" s="13" t="s">
         <v>160</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4"/>
-      <c r="B33" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>165</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4"/>
-      <c r="B34" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>168</v>
+      <c r="B34" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4"/>
-      <c r="B35" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="B35" s="13" t="s">
         <v>173</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
-      <c r="B36" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="B36" s="13" t="s">
         <v>178</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:57">
       <c r="A37" s="4"/>
-      <c r="B37" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="B37" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="C37" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="D37" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="E37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="F37" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="G37" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="H37" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="I37" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="J37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="K37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="L37" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="M37" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="N37" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="S37" s="9" t="s">
+      <c r="O37" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="T37" s="9" t="s">
+      <c r="P37" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="U37" s="9" t="s">
+      <c r="Q37" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="V37" s="9" t="s">
+      <c r="R37" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="W37" s="9" t="s">
+      <c r="S37" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="X37" s="9" t="s">
+      <c r="T37" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="Y37" s="9" t="s">
+      <c r="U37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="Z37" s="9" t="s">
+      <c r="V37" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AA37" s="9" t="s">
+      <c r="W37" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AB37" s="9" t="s">
+      <c r="X37" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AC37" s="9" t="s">
+      <c r="Y37" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="AD37" s="9" t="s">
+      <c r="Z37" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AE37" s="9" t="s">
+      <c r="AA37" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AF37" s="9" t="s">
+      <c r="AB37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AG37" s="9" t="s">
+      <c r="AC37" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="AH37" s="9" t="s">
+      <c r="AD37" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="AI37" s="9" t="s">
+      <c r="AE37" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="AJ37" s="9" t="s">
+      <c r="AF37" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="AK37" s="9" t="s">
+      <c r="AG37" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AL37" s="9" t="s">
+      <c r="AH37" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="AM37" s="9" t="s">
+      <c r="AI37" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="AN37" s="9" t="s">
+      <c r="AJ37" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="AO37" s="9" t="s">
+      <c r="AK37" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AP37" s="9" t="s">
+      <c r="AL37" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AQ37" s="9" t="s">
+      <c r="AM37" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AR37" s="9" t="s">
+      <c r="AN37" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AS37" s="9" t="s">
+      <c r="AO37" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AT37" s="9" t="s">
+      <c r="AP37" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="AU37" s="9" t="s">
+      <c r="AQ37" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="AV37" s="9" t="s">
+      <c r="AR37" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="AW37" s="9" t="s">
+      <c r="AS37" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="AX37" s="9" t="s">
+      <c r="AT37" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="AY37" s="9" t="s">
+      <c r="AU37" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="AZ37" s="9" t="s">
+      <c r="AV37" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="BA37" s="9" t="s">
+      <c r="AW37" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="BB37" s="9" t="s">
+      <c r="AX37" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="BC37" s="9" t="s">
+      <c r="AY37" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="BD37" s="9" t="s">
+      <c r="AZ37" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="BE37" s="9" t="s">
+      <c r="BA37" s="12" t="s">
         <v>234</v>
+      </c>
+      <c r="BB37" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC37" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="BD37" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE37" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="9" t="s">
         <v>239</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4"/>
-      <c r="B40" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>242</v>
+      <c r="B40" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4"/>
-      <c r="B41" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="B41" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="C41" s="12" t="s">
         <v>248</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4"/>
-      <c r="B42" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>251</v>
+      <c r="B42" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
-      <c r="B43" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>254</v>
+      <c r="B43" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4"/>
-      <c r="B44" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>258</v>
+      <c r="B44" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4"/>
-      <c r="B45" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>261</v>
+      <c r="B45" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4"/>
-      <c r="B46" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>265</v>
+      <c r="B46" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4"/>
-      <c r="B47" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="B47" s="13" t="s">
         <v>270</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4"/>
-      <c r="B48" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>274</v>
+      <c r="B48" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4"/>
-      <c r="B49" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="9" t="s">
+      <c r="B49" s="13" t="s">
         <v>279</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4"/>
-      <c r="B50" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>282</v>
+      <c r="B50" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4"/>
-      <c r="B51" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="B51" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="C51" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
-      <c r="B52" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="B52" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="4"/>
-      <c r="B53" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>294</v>
+      <c r="B53" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4"/>
-      <c r="B54" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="4"/>
-      <c r="B55" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="B55" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4"/>
-      <c r="B56" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="B56" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="4"/>
-      <c r="B57" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="B57" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4"/>
-      <c r="B58" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="B58" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" s="4"/>
-      <c r="B59" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+      <c r="B59" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q59" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="R59" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="U59" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="X59" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z59" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA59" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB59" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC59" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD59" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AE59" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF59" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG59" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH59" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
-      <c r="B60" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="N60" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="O60" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="S60" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="T60" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="U60" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="V60" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="W60" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="X60" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y60" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z60" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA60" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB60" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="AC60" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD60" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE60" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="AF60" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="AG60" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH60" s="9" t="s">
-        <v>360</v>
+      <c r="B60" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4"/>
-      <c r="B61" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="B61" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4"/>
-      <c r="B62" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="B62" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="4"/>
-      <c r="B63" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>376</v>
+      <c r="B63" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4"/>
-      <c r="B64" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="B64" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="4"/>
-      <c r="B65" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4"/>
-      <c r="B66" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C66" s="9" t="s">
+      <c r="B65" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="C65" s="12" t="s">
         <v>387</v>
       </c>
+      <c r="D65" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>390</v>
+      <c r="A68" s="4"/>
+      <c r="B68" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
-      <c r="B69" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>248</v>
+      <c r="B69" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
-      <c r="B70" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>393</v>
+      <c r="B70" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
-      <c r="B71" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>395</v>
+      <c r="B71" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
-      <c r="B72" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>397</v>
+      <c r="B72" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4"/>
-      <c r="B73" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>399</v>
+      <c r="B73" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4"/>
-      <c r="B74" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>401</v>
+      <c r="B74" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4"/>
-      <c r="B75" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>403</v>
+      <c r="B75" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4"/>
-      <c r="B76" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>405</v>
+      <c r="B76" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4"/>
-      <c r="B77" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>407</v>
+      <c r="B77" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4"/>
-      <c r="B78" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>409</v>
+      <c r="B78" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4"/>
-      <c r="B79" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>411</v>
+      <c r="B79" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4"/>
-      <c r="B80" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>413</v>
+      <c r="B80" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4"/>
-      <c r="B81" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>415</v>
+      <c r="B81" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4"/>
-      <c r="B82" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>417</v>
+      <c r="B82" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4"/>
-      <c r="B83" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>419</v>
+      <c r="B83" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4"/>
-      <c r="B84" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>421</v>
+      <c r="B84" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4"/>
-      <c r="B85" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>423</v>
+      <c r="B85" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4"/>
-      <c r="B86" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>425</v>
+      <c r="B86" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4"/>
-      <c r="B87" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>427</v>
+      <c r="B87" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4"/>
-      <c r="B88" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>429</v>
+      <c r="B88" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4"/>
-      <c r="B89" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>431</v>
+      <c r="B89" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4"/>
-      <c r="B90" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>433</v>
+      <c r="B90" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4"/>
-      <c r="B91" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>435</v>
+      <c r="B91" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4"/>
-      <c r="B92" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>437</v>
+      <c r="B92" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4"/>
-      <c r="B93" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>439</v>
+      <c r="B93" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4"/>
-      <c r="B94" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>441</v>
+      <c r="B94" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4"/>
-      <c r="B95" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B95" s="13" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="9" t="s">
+      <c r="C95" s="12" t="s">
         <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="4"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5604,8 +5712,8 @@
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:A37"/>
-    <mergeCell ref="A39:A66"/>
-    <mergeCell ref="A68:A95"/>
+    <mergeCell ref="A39:A65"/>
+    <mergeCell ref="A67:A96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5616,10 +5724,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5645,1413 +5753,1459 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G2" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="I2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="L2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="M2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="N2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="O2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="R2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G3" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E6" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F6" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E8" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F8" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C9" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D9" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E9" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C11" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D12" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="C13" t="s">
-        <v>509</v>
-      </c>
-      <c r="D13" t="s">
-        <v>510</v>
+        <v>515</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D14" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F14" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G14" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H14" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="I14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="J14" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C15" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C16" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D17" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C18" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D18" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="E18" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F18" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="G18" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="H18" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="I18" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C19" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D19" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C20" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D20" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="E20" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F20" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="G20" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H20" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="I20" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="J20" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C21" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D21" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="E21" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F21" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C22" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E22" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="F22" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="G22" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="J22" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="K22" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="L22" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M22" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="N22" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="O22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="C23" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D23" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C24" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D24" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E24" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F24" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G24" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="H24" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="I24" t="s">
-        <v>576</v>
+        <v>583</v>
+      </c>
+      <c r="J24" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C25" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C26" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D26" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="E26" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C27" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D27" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="E27" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="F27" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C28" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D28" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="E28" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C29" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E29" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="F29" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="G29" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H29" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="I29" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="J29" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C31" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D31" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" ht="13" customHeight="1" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C32" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D32" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E32" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F32" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C33" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D33" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C34" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D34" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="E34" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C35" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D35" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="E35" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C36" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D36" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E36" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="F36" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="G36" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="C37" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D37" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E37" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="F37" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C38" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D38" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="E38" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D39" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="E39" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F39" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G39" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C40" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D40" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="E40" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="C41" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C42" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D42" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E42" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C43" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D43" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C44" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D44" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="E44" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F44" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="G44" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="H44" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="I44" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C45" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C46" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D46" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="C47" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D47" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="C48" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D48" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="E48" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="C49" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D49" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E49" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="F49" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C50" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D50" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E50" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="C51" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="D51" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="E51" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="C53" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="C54" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="D54" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C55" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="D55" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="E55" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="F55" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="G55" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C56" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D56" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="C57" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="C58" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="C59" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C60" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D60" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C61" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="C62" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C63" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D63" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E63" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="F63" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="C64" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="C65" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D65" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C66" t="s">
-        <v>728</v>
+        <v>736</v>
+      </c>
+      <c r="D66" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="C67" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="8" t="s">
-        <v>388</v>
+      <c r="A70" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="C70" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="8"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="5" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="C71" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="8"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="5" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="C72" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="8"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="5" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="C73" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="8"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="5" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C74" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="8"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="5" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C75" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="8"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="5" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="C76" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="8"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="5" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="C77" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="8"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="5" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="C78" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="8"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="5" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C79" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="8"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="5" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C80" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="8"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="5" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="C81" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="8"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="5" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="C82" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="8"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="5" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="C83" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="8"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="5" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="C84" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="8"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="5" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="C85" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="8"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="5" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="C86" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="8"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="5" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="C87" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="8"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="5" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="C88" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="8"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="5" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="C89" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="8"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="5" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="C90" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="8"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="5" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="C91" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="8"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="5" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C92" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="8"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="5" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="C93" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
-        <v>778</v>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="8"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="5" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="C95" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="8"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="5" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C96" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="8"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="5" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="C97" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="8"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="5" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="C98" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="8"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="5"/>
       <c r="C99" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="8"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="5" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="C100" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="D100" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="8"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="5" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="C101" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="8"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="5" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C102" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="8"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="5" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="C103" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="8"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="5" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="C104" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="8"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="5" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="C105" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="8"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="5" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="C106" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="8"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="5" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C107" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="8"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="5" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="C108" t="s">
-        <v>805</v>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="C109" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="C110" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C111" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>822</v>
+      </c>
+      <c r="C112" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>824</v>
+      </c>
+      <c r="C113" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -7073,7 +7227,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7092,22 +7246,22 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:20">
       <c r="A1" s="5" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7126,10 +7280,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7152,13 +7306,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7180,31 +7334,31 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -7220,13 +7374,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -7248,13 +7402,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>830</v>
+        <v>295</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7276,22 +7430,22 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -7310,10 +7464,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -7336,16 +7490,16 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -7366,13 +7520,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7394,16 +7548,16 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -7424,10 +7578,10 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7450,10 +7604,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7476,19 +7630,19 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -7508,16 +7662,16 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7538,13 +7692,13 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -7566,10 +7720,10 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7592,30 +7746,32 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>894</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>895</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -7630,13 +7786,13 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -7658,13 +7814,13 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -7686,10 +7842,10 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -7712,10 +7868,10 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7738,10 +7894,10 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -8027,10 +8183,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
@@ -8045,122 +8201,124 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="C1" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="D1" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="E1" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="F1" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="G1" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="H1" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="I1" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="C2" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="C4" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="C5" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="D5" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="C6" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="C7" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>928</v>
+      </c>
       <c r="C8" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="C9" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="C10" t="s">
-        <v>912</v>
+      <c r="B10" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
-      <c r="B11" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>914</v>
+      <c r="B11" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8175,183 +8333,183 @@
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
-        <v>915</v>
-      </c>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C19" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="C20" t="s">
-        <v>917</v>
+        <v>939</v>
+      </c>
+      <c r="D20" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="C21" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="D21" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
       <c r="C22" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="D22" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="C23" t="s">
-        <v>925</v>
-      </c>
-      <c r="D23" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
       <c r="C24" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>857</v>
+        <v>948</v>
       </c>
       <c r="C25" t="s">
-        <v>857</v>
+        <v>949</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>928</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>929</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>950</v>
+      </c>
       <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="C28" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>932</v>
+        <v>953</v>
+      </c>
+      <c r="C29" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
       <c r="C30" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="C31" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="C32" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>959</v>
+      </c>
+      <c r="D32" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="C33" t="s">
-        <v>939</v>
-      </c>
-      <c r="D33" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="C34" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="C35" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>966</v>
+      </c>
+      <c r="D35" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="C36" t="s">
-        <v>946</v>
-      </c>
-      <c r="D36" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="C37" t="s">
-        <v>949</v>
-      </c>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4"/>
@@ -8361,17 +8519,16 @@
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="B50" t="s">
-        <v>951</v>
-      </c>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B49" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1"/>
@@ -8403,14 +8560,11 @@
     <row r="60" spans="1:1">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="A20:A40"/>
-    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="A19:A39"/>
+    <mergeCell ref="A49:A60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8422,22 +8576,23 @@
   <sheetPr/>
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.41592920353982" customWidth="1"/>
     <col min="2" max="2" width="18.283185840708" customWidth="1"/>
+    <col min="3" max="3" width="16.7256637168142" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8678,7 +8833,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8920,7 +9075,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9222,13 +9377,13 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -9259,7 +9414,7 @@
     <row r="28" spans="1:28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9291,7 +9446,7 @@
     <row r="29" spans="1:28">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -9323,7 +9478,9 @@
     <row r="30" spans="1:28">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>981</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>

--- a/歌单.xlsx
+++ b/歌单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31391" windowHeight="14400" activeTab="1"/>
+    <workbookView windowWidth="31391" windowHeight="14400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="男歌手" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1083">
   <si>
     <t>港台</t>
   </si>
@@ -110,6 +110,18 @@
     <t>护花使者</t>
   </si>
   <si>
+    <t>李圣杰</t>
+  </si>
+  <si>
+    <t>痴心绝对</t>
+  </si>
+  <si>
+    <t>手放开</t>
+  </si>
+  <si>
+    <t>你那么爱他</t>
+  </si>
+  <si>
     <t>李宗盛</t>
   </si>
   <si>
@@ -326,6 +338,12 @@
     <t>那个女孩</t>
   </si>
   <si>
+    <t>爱，很简单</t>
+  </si>
+  <si>
+    <t>melody</t>
+  </si>
+  <si>
     <t>王杰</t>
   </si>
   <si>
@@ -461,6 +479,9 @@
     <t>倩女幽魂</t>
   </si>
   <si>
+    <t>monica</t>
+  </si>
+  <si>
     <t>张信哲</t>
   </si>
   <si>
@@ -473,6 +494,9 @@
     <t>爱如潮水</t>
   </si>
   <si>
+    <t>信仰</t>
+  </si>
+  <si>
     <t>张学友</t>
   </si>
   <si>
@@ -482,6 +506,9 @@
     <t>吻别</t>
   </si>
   <si>
+    <t>饿狼传说</t>
+  </si>
+  <si>
     <t>张宇</t>
   </si>
   <si>
@@ -491,6 +518,9 @@
     <t>雨一直下</t>
   </si>
   <si>
+    <t>囚鸟</t>
+  </si>
+  <si>
     <t>张雨生</t>
   </si>
   <si>
@@ -569,6 +599,9 @@
     <t>亲亲我的宝贝</t>
   </si>
   <si>
+    <t>花心</t>
+  </si>
+  <si>
     <t>周杰伦</t>
   </si>
   <si>
@@ -1007,6 +1040,15 @@
     <t>他的猫</t>
   </si>
   <si>
+    <t>徐誉滕</t>
+  </si>
+  <si>
+    <t>等一分钟</t>
+  </si>
+  <si>
+    <t>天使的翅膀</t>
+  </si>
+  <si>
     <t>许嵩</t>
   </si>
   <si>
@@ -1154,6 +1196,9 @@
     <t>雪龙吟</t>
   </si>
   <si>
+    <t>明天过后</t>
+  </si>
+  <si>
     <t>赵雷</t>
   </si>
   <si>
@@ -1190,25 +1235,115 @@
     <t>单曲</t>
   </si>
   <si>
+    <t>阿里郎</t>
+  </si>
+  <si>
+    <t>兰花指</t>
+  </si>
+  <si>
+    <t>蔡旻佑</t>
+  </si>
+  <si>
+    <t>我可以</t>
+  </si>
+  <si>
+    <t>曹格</t>
+  </si>
+  <si>
+    <t>梁山伯与朱丽叶</t>
+  </si>
+  <si>
+    <t>陈柏宇</t>
+  </si>
+  <si>
+    <t>你瞒我瞒</t>
+  </si>
+  <si>
     <t>陈势安</t>
   </si>
   <si>
     <t>天后</t>
   </si>
   <si>
+    <t>陈小春</t>
+  </si>
+  <si>
+    <t>独家记忆</t>
+  </si>
+  <si>
+    <t>陈晓东</t>
+  </si>
+  <si>
+    <t>比我幸福</t>
+  </si>
+  <si>
+    <t>崔开潮</t>
+  </si>
+  <si>
+    <t>声声慢</t>
+  </si>
+  <si>
+    <t>戴荃</t>
+  </si>
+  <si>
+    <t>悟空</t>
+  </si>
+  <si>
+    <t>迪克牛仔</t>
+  </si>
+  <si>
+    <t>有多少爱可以重来</t>
+  </si>
+  <si>
     <t>杜德伟</t>
   </si>
   <si>
-    <t>迪克牛仔</t>
-  </si>
-  <si>
-    <t>有多少爱可以重来</t>
-  </si>
-  <si>
-    <t>曹格</t>
-  </si>
-  <si>
-    <t>梁山伯与朱丽叶</t>
+    <t>范逸臣</t>
+  </si>
+  <si>
+    <t>放生</t>
+  </si>
+  <si>
+    <t>郭顶</t>
+  </si>
+  <si>
+    <t>水星记</t>
+  </si>
+  <si>
+    <t>海伦</t>
+  </si>
+  <si>
+    <t>走卒</t>
+  </si>
+  <si>
+    <t>黄品源</t>
+  </si>
+  <si>
+    <t>你怎么舍得我难过</t>
+  </si>
+  <si>
+    <t>黄义达</t>
+  </si>
+  <si>
+    <t>那女孩对我说</t>
+  </si>
+  <si>
+    <t>李玖哲</t>
+  </si>
+  <si>
+    <t>想太多</t>
+  </si>
+  <si>
+    <t>李行亮</t>
+  </si>
+  <si>
+    <t>愿得一人心</t>
+  </si>
+  <si>
+    <t>林志颖</t>
+  </si>
+  <si>
+    <t>十七岁的雨季</t>
   </si>
   <si>
     <t>林子祥</t>
@@ -1217,22 +1352,136 @@
     <t>敢爱敢做</t>
   </si>
   <si>
+    <t>刘胡轶</t>
+  </si>
+  <si>
+    <t>从前慢</t>
+  </si>
+  <si>
+    <t>刘潼</t>
+  </si>
+  <si>
+    <t>等风来</t>
+  </si>
+  <si>
+    <t>南宫嘉骏</t>
+  </si>
+  <si>
+    <t>回忆总想哭</t>
+  </si>
+  <si>
+    <t>欧得洋</t>
+  </si>
+  <si>
+    <t>孤单北半球</t>
+  </si>
+  <si>
+    <t>沙宝亮</t>
+  </si>
+  <si>
+    <t>暗香</t>
+  </si>
+  <si>
+    <t>汪涛</t>
+  </si>
+  <si>
+    <t>生日礼物</t>
+  </si>
+  <si>
+    <t>王晓天</t>
+  </si>
+  <si>
+    <t>再见吧，喵小姐</t>
+  </si>
+  <si>
+    <t>王铮亮</t>
+  </si>
+  <si>
+    <t>时间都去哪了</t>
+  </si>
+  <si>
     <t>吴青峰</t>
   </si>
   <si>
     <t>起风了</t>
   </si>
   <si>
+    <t>五音jw</t>
+  </si>
+  <si>
+    <t>明月天涯</t>
+  </si>
+  <si>
+    <t>伍思凯</t>
+  </si>
+  <si>
+    <t>特别的爱给特别的你</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>不再联系</t>
+  </si>
+  <si>
+    <t>谢帝</t>
+  </si>
+  <si>
+    <t>老子明天不上班</t>
+  </si>
+  <si>
+    <t>许冠杰</t>
+  </si>
+  <si>
+    <t>天才白痴梦</t>
+  </si>
+  <si>
     <t>许绍洋</t>
   </si>
   <si>
     <t>花香</t>
   </si>
   <si>
-    <t>许冠杰</t>
-  </si>
-  <si>
-    <t>天才白痴梦</t>
+    <t>宇桐非</t>
+  </si>
+  <si>
+    <t>感动天感动地</t>
+  </si>
+  <si>
+    <t>张栋梁</t>
+  </si>
+  <si>
+    <t>当你孤单你会想起谁</t>
+  </si>
+  <si>
+    <t>张敬轩</t>
+  </si>
+  <si>
+    <t>断点</t>
+  </si>
+  <si>
+    <t>张远</t>
+  </si>
+  <si>
+    <t>嘉宾</t>
+  </si>
+  <si>
+    <t>赵英俊</t>
+  </si>
+  <si>
+    <t>大王让我来巡山</t>
+  </si>
+  <si>
+    <t>赵照</t>
+  </si>
+  <si>
+    <t>当你老了</t>
+  </si>
+  <si>
+    <t>郑浩</t>
+  </si>
+  <si>
+    <t>须尽欢</t>
   </si>
   <si>
     <t>郑中基</t>
@@ -1241,147 +1490,9 @@
     <t>无赖</t>
   </si>
   <si>
-    <t>戴荃</t>
-  </si>
-  <si>
-    <t>悟空</t>
-  </si>
-  <si>
-    <t>张远</t>
-  </si>
-  <si>
-    <t>嘉宾</t>
-  </si>
-  <si>
-    <t>赵英俊</t>
-  </si>
-  <si>
-    <t>大王让我来巡山</t>
-  </si>
-  <si>
-    <t>沙宝亮</t>
-  </si>
-  <si>
-    <t>暗香</t>
-  </si>
-  <si>
-    <t>赵照</t>
-  </si>
-  <si>
-    <t>当你老了</t>
-  </si>
-  <si>
-    <t>谢帝</t>
-  </si>
-  <si>
-    <t>老子明天不上班</t>
-  </si>
-  <si>
-    <t>王铮亮</t>
-  </si>
-  <si>
-    <t>时间都去哪了</t>
-  </si>
-  <si>
-    <t>五音jw</t>
-  </si>
-  <si>
-    <t>明月天涯</t>
-  </si>
-  <si>
-    <t>伍思凯</t>
-  </si>
-  <si>
-    <t>特别的爱给特别的你</t>
-  </si>
-  <si>
-    <t>海伦</t>
-  </si>
-  <si>
-    <t>走卒</t>
-  </si>
-  <si>
-    <t>崔开潮</t>
-  </si>
-  <si>
-    <t>声声慢</t>
-  </si>
-  <si>
-    <t>刘胡轶</t>
-  </si>
-  <si>
-    <t>从前慢</t>
-  </si>
-  <si>
-    <t>黄品源</t>
-  </si>
-  <si>
-    <t>你怎么舍得我难过</t>
-  </si>
-  <si>
-    <t>郑浩</t>
-  </si>
-  <si>
-    <t>须尽欢</t>
-  </si>
-  <si>
-    <t>王晓天</t>
-  </si>
-  <si>
-    <t>再见吧，喵小姐</t>
-  </si>
-  <si>
-    <t>刘潼</t>
-  </si>
-  <si>
-    <t>等风来</t>
-  </si>
-  <si>
-    <t>陈小春</t>
-  </si>
-  <si>
-    <t>独家记忆</t>
-  </si>
-  <si>
-    <t>徐誉滕</t>
-  </si>
-  <si>
-    <t>等一分钟</t>
-  </si>
-  <si>
-    <t>郭顶</t>
-  </si>
-  <si>
-    <t>水星记</t>
-  </si>
-  <si>
-    <t>李行亮</t>
-  </si>
-  <si>
-    <t>愿得一人心</t>
-  </si>
-  <si>
     <t>南山南</t>
   </si>
   <si>
-    <t>黄义达</t>
-  </si>
-  <si>
-    <t>那女孩对我说</t>
-  </si>
-  <si>
-    <t>欧得洋</t>
-  </si>
-  <si>
-    <t>孤单北半球</t>
-  </si>
-  <si>
-    <t>张栋梁</t>
-  </si>
-  <si>
-    <t>当你孤单你会想起谁</t>
-  </si>
-  <si>
     <t>阿桑</t>
   </si>
   <si>
@@ -1481,6 +1592,18 @@
     <t>私奔到月球</t>
   </si>
   <si>
+    <t>戴佩妮</t>
+  </si>
+  <si>
+    <t>怎样</t>
+  </si>
+  <si>
+    <t>你要的爱</t>
+  </si>
+  <si>
+    <t>街角的祝福</t>
+  </si>
+  <si>
     <t>邓丽君</t>
   </si>
   <si>
@@ -1601,6 +1724,9 @@
     <t>分手快乐</t>
   </si>
   <si>
+    <t>燕尾蝶</t>
+  </si>
+  <si>
     <t>梁咏琪</t>
   </si>
   <si>
@@ -1688,6 +1814,9 @@
     <t>我也很想他</t>
   </si>
   <si>
+    <t>逆光</t>
+  </si>
+  <si>
     <t>田馥甄</t>
   </si>
   <si>
@@ -1775,6 +1904,9 @@
     <t>一个人的精彩</t>
   </si>
   <si>
+    <t>类似爱情</t>
+  </si>
+  <si>
     <t>徐怀钰</t>
   </si>
   <si>
@@ -1796,6 +1928,12 @@
     <t>雨爱</t>
   </si>
   <si>
+    <t>庆祝</t>
+  </si>
+  <si>
+    <t>带我走</t>
+  </si>
+  <si>
     <t>杨千嬅</t>
   </si>
   <si>
@@ -1850,6 +1988,9 @@
     <t>喜欢你没道理</t>
   </si>
   <si>
+    <t>梦里花</t>
+  </si>
+  <si>
     <t>本兮</t>
   </si>
   <si>
@@ -1859,6 +2000,9 @@
     <t>奇怪我不懂得爱</t>
   </si>
   <si>
+    <t>情花</t>
+  </si>
+  <si>
     <t>陈粒</t>
   </si>
   <si>
@@ -2240,6 +2384,330 @@
     <t>九九八十一</t>
   </si>
   <si>
+    <t>A-Lin</t>
+  </si>
+  <si>
+    <t>给我一个理由忘记</t>
+  </si>
+  <si>
+    <t>阿YueYue</t>
+  </si>
+  <si>
+    <t>云与海</t>
+  </si>
+  <si>
+    <t>蔡健雅</t>
+  </si>
+  <si>
+    <t>红色高跟鞋</t>
+  </si>
+  <si>
+    <t>岑宁儿</t>
+  </si>
+  <si>
+    <t>追光者</t>
+  </si>
+  <si>
+    <t>陈瑞</t>
+  </si>
+  <si>
+    <t>白狐</t>
+  </si>
+  <si>
+    <t>程响</t>
+  </si>
+  <si>
+    <t>世界这么大还是遇见你</t>
+  </si>
+  <si>
+    <t>崔子格</t>
+  </si>
+  <si>
+    <t>卜卦</t>
+  </si>
+  <si>
+    <t>叮当</t>
+  </si>
+  <si>
+    <t>猜不透</t>
+  </si>
+  <si>
+    <t>海楠</t>
+  </si>
+  <si>
+    <t>爱啦啦</t>
+  </si>
+  <si>
+    <t>韩雪</t>
+  </si>
+  <si>
+    <t>想起</t>
+  </si>
+  <si>
+    <t>合唱</t>
+  </si>
+  <si>
+    <t>澳门之歌</t>
+  </si>
+  <si>
+    <t>何洁</t>
+  </si>
+  <si>
+    <t>小永远</t>
+  </si>
+  <si>
+    <t>何小慧</t>
+  </si>
+  <si>
+    <t>初恋情人</t>
+  </si>
+  <si>
+    <t>黄绮珊</t>
+  </si>
+  <si>
+    <t>离不开你</t>
+  </si>
+  <si>
+    <t>黄小琥</t>
+  </si>
+  <si>
+    <t>没那么简单</t>
+  </si>
+  <si>
+    <t>黄雅莉</t>
+  </si>
+  <si>
+    <t>蝴蝶泉边</t>
+  </si>
+  <si>
+    <t>江雨晨</t>
+  </si>
+  <si>
+    <t>浪漫爱</t>
+  </si>
+  <si>
+    <t>金玟岐</t>
+  </si>
+  <si>
+    <t>岁月神偷</t>
+  </si>
+  <si>
+    <t>雷雨心</t>
+  </si>
+  <si>
+    <t>纪念</t>
+  </si>
+  <si>
+    <t>李丽芬</t>
+  </si>
+  <si>
+    <t>爱江山更爱美人</t>
+  </si>
+  <si>
+    <t>李殊</t>
+  </si>
+  <si>
+    <t>烟雨唱扬州</t>
+  </si>
+  <si>
+    <t>梦醒时分</t>
+  </si>
+  <si>
+    <t>刘惜君</t>
+  </si>
+  <si>
+    <t>我很快乐</t>
+  </si>
+  <si>
+    <t>孟慧圆</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+  </si>
+  <si>
+    <t>孟庭苇</t>
+  </si>
+  <si>
+    <t>风中有朵雨做的云</t>
+  </si>
+  <si>
+    <t>梦涵</t>
+  </si>
+  <si>
+    <t>爱的故事上集</t>
+  </si>
+  <si>
+    <t>梦然</t>
+  </si>
+  <si>
+    <t>少年</t>
+  </si>
+  <si>
+    <t>莫艳琳</t>
+  </si>
+  <si>
+    <t>爱一点</t>
+  </si>
+  <si>
+    <t>慕容晓晓</t>
+  </si>
+  <si>
+    <t>黄梅戏</t>
+  </si>
+  <si>
+    <t>彭佳慧</t>
+  </si>
+  <si>
+    <t>相见恨晚</t>
+  </si>
+  <si>
+    <t>戚薇</t>
+  </si>
+  <si>
+    <t>外滩十八号</t>
+  </si>
+  <si>
+    <t>芒种</t>
+  </si>
+  <si>
+    <t>青柠</t>
+  </si>
+  <si>
+    <t>苏运莹</t>
+  </si>
+  <si>
+    <t>野子</t>
+  </si>
+  <si>
+    <t>孙悦</t>
+  </si>
+  <si>
+    <t>欢乐中国年</t>
+  </si>
+  <si>
+    <t>谭晶</t>
+  </si>
+  <si>
+    <t>赤伶</t>
+  </si>
+  <si>
+    <t>谭维维</t>
+  </si>
+  <si>
+    <t>如果有来生</t>
+  </si>
+  <si>
+    <t>王冰洋</t>
+  </si>
+  <si>
+    <t>飞舞</t>
+  </si>
+  <si>
+    <t>王麟</t>
+  </si>
+  <si>
+    <t>QQ爱</t>
+  </si>
+  <si>
+    <t>王蓉</t>
+  </si>
+  <si>
+    <t>爸爸妈妈</t>
+  </si>
+  <si>
+    <t>温奕心</t>
+  </si>
+  <si>
+    <t>一路生花</t>
+  </si>
+  <si>
+    <t>谢安琪</t>
+  </si>
+  <si>
+    <t>喜帖街</t>
+  </si>
+  <si>
+    <t>谢春花</t>
+  </si>
+  <si>
+    <t>我从崖边跌落</t>
+  </si>
+  <si>
+    <t>徐佳莹</t>
+  </si>
+  <si>
+    <t>失落沙洲</t>
+  </si>
+  <si>
+    <t>许慧欣</t>
+  </si>
+  <si>
+    <t>七月七日晴</t>
+  </si>
+  <si>
+    <t>许美静</t>
+  </si>
+  <si>
+    <t>城里的月光</t>
+  </si>
+  <si>
+    <t>许茹芸</t>
+  </si>
+  <si>
+    <t>独角戏</t>
+  </si>
+  <si>
+    <t>姚贝娜</t>
+  </si>
+  <si>
+    <t>随他吧</t>
+  </si>
+  <si>
+    <t>叶倩文</t>
+  </si>
+  <si>
+    <t>潇洒走一回</t>
+  </si>
+  <si>
+    <t>音阙诗听</t>
+  </si>
+  <si>
+    <t>红韶愿</t>
+  </si>
+  <si>
+    <t>于文文</t>
+  </si>
+  <si>
+    <t>体面</t>
+  </si>
+  <si>
+    <t>宇桐飞/胡雯</t>
+  </si>
+  <si>
+    <t>擦肩而过</t>
+  </si>
+  <si>
+    <t>周蕙</t>
+  </si>
+  <si>
+    <t>张柏芝</t>
+  </si>
+  <si>
+    <t>星语心愿</t>
+  </si>
+  <si>
+    <t>张碧晨</t>
+  </si>
+  <si>
+    <t>年轮</t>
+  </si>
+  <si>
+    <t>张含韵</t>
+  </si>
+  <si>
+    <t>酸酸甜甜就是我</t>
+  </si>
+  <si>
     <t>张小斐</t>
   </si>
   <si>
@@ -2252,58 +2720,10 @@
     <t>苏幕遮</t>
   </si>
   <si>
-    <t>张含韵</t>
-  </si>
-  <si>
-    <t>酸酸甜甜就是我</t>
-  </si>
-  <si>
-    <t>于文文</t>
-  </si>
-  <si>
-    <t>体面</t>
-  </si>
-  <si>
-    <t>孟庭苇</t>
-  </si>
-  <si>
-    <t>风中有朵雨做的云</t>
-  </si>
-  <si>
-    <t>莫艳琳</t>
-  </si>
-  <si>
-    <t>爱一点</t>
-  </si>
-  <si>
-    <t>海楠</t>
-  </si>
-  <si>
-    <t>爱啦啦</t>
-  </si>
-  <si>
-    <t>许茹芸</t>
-  </si>
-  <si>
-    <t>独角戏</t>
-  </si>
-  <si>
-    <t>黄小琥</t>
-  </si>
-  <si>
-    <t>没那么简单</t>
-  </si>
-  <si>
-    <t>张柏芝</t>
-  </si>
-  <si>
-    <t>星语心愿</t>
-  </si>
-  <si>
-    <t>叶倩文</t>
-  </si>
-  <si>
-    <t>潇洒走一回</t>
+    <t>赵薇</t>
+  </si>
+  <si>
+    <t>情深深雨蒙蒙</t>
   </si>
   <si>
     <t>周慧敏</t>
@@ -2312,190 +2732,16 @@
     <t>痴心换情深</t>
   </si>
   <si>
-    <t>蔡健雅</t>
-  </si>
-  <si>
-    <t>红色高跟鞋</t>
-  </si>
-  <si>
-    <t>崔子格</t>
-  </si>
-  <si>
-    <t>卜卦</t>
-  </si>
-  <si>
-    <t>何洁</t>
-  </si>
-  <si>
-    <t>小永远</t>
-  </si>
-  <si>
-    <t>黄绮珊</t>
-  </si>
-  <si>
-    <t>离不开你</t>
-  </si>
-  <si>
-    <t>黄雅莉</t>
-  </si>
-  <si>
-    <t>蝴蝶泉边</t>
-  </si>
-  <si>
-    <t>金玟岐</t>
-  </si>
-  <si>
-    <t>岁月神偷</t>
-  </si>
-  <si>
-    <t>雷雨心</t>
-  </si>
-  <si>
-    <t>纪念</t>
-  </si>
-  <si>
-    <t>刘惜君</t>
-  </si>
-  <si>
-    <t>我很快乐</t>
-  </si>
-  <si>
-    <t>戚薇</t>
-  </si>
-  <si>
-    <t>外滩十八号</t>
-  </si>
-  <si>
-    <t>合唱</t>
-  </si>
-  <si>
-    <t>澳门之歌</t>
-  </si>
-  <si>
-    <t>孙悦</t>
-  </si>
-  <si>
-    <t>欢乐中国年</t>
-  </si>
-  <si>
-    <t>谭维维</t>
-  </si>
-  <si>
-    <t>如果有来生</t>
-  </si>
-  <si>
-    <t>周蕙</t>
-  </si>
-  <si>
-    <t>谢春花</t>
-  </si>
-  <si>
-    <t>我从崖边跌落</t>
-  </si>
-  <si>
-    <t>王麟</t>
-  </si>
-  <si>
-    <t>QQ爱</t>
-  </si>
-  <si>
-    <t>姚贝娜</t>
-  </si>
-  <si>
-    <t>随他吧</t>
-  </si>
-  <si>
-    <t>张碧晨</t>
-  </si>
-  <si>
-    <t>年轮</t>
+    <t>卓舒晨</t>
+  </si>
+  <si>
+    <t>走着走着花就开了</t>
   </si>
   <si>
     <t>我的一个道姑朋友</t>
   </si>
   <si>
-    <t>音阙诗听</t>
-  </si>
-  <si>
-    <t>红韶愿</t>
-  </si>
-  <si>
-    <t>芒种</t>
-  </si>
-  <si>
-    <t>卓舒晨</t>
-  </si>
-  <si>
-    <t>走着走着花就开了</t>
-  </si>
-  <si>
-    <t>青柠</t>
-  </si>
-  <si>
-    <t>宇桐飞/胡雯</t>
-  </si>
-  <si>
-    <t>擦肩而过</t>
-  </si>
-  <si>
-    <t>苏运莹</t>
-  </si>
-  <si>
-    <t>野子</t>
-  </si>
-  <si>
-    <t>A-Lin</t>
-  </si>
-  <si>
-    <t>给我一个理由忘记</t>
-  </si>
-  <si>
-    <t>梦然</t>
-  </si>
-  <si>
-    <t>少年</t>
-  </si>
-  <si>
-    <t>岑宁儿</t>
-  </si>
-  <si>
-    <t>追光者</t>
-  </si>
-  <si>
-    <t>王蓉</t>
-  </si>
-  <si>
-    <t>爸爸妈妈</t>
-  </si>
-  <si>
-    <t>李丽芬</t>
-  </si>
-  <si>
-    <t>爱江山更爱美人</t>
-  </si>
-  <si>
-    <t>彭佳慧</t>
-  </si>
-  <si>
-    <t>相见恨晚</t>
-  </si>
-  <si>
-    <t>阿YueYue</t>
-  </si>
-  <si>
-    <t>云与海</t>
-  </si>
-  <si>
-    <t>程响</t>
-  </si>
-  <si>
-    <t>世界这么大还是遇见你</t>
-  </si>
-  <si>
-    <t>李殊</t>
-  </si>
-  <si>
-    <t>烟雨唱扬州</t>
+    <t>我难过</t>
   </si>
   <si>
     <t>beyond</t>
@@ -2555,6 +2801,12 @@
     <t>波斯猫</t>
   </si>
   <si>
+    <t>Sweety</t>
+  </si>
+  <si>
+    <t>樱花草</t>
+  </si>
+  <si>
     <t>twins</t>
   </si>
   <si>
@@ -2564,6 +2816,12 @@
     <t>莫斯科没有眼泪</t>
   </si>
   <si>
+    <t>东来东往</t>
+  </si>
+  <si>
+    <t>别说我的眼泪你无所谓</t>
+  </si>
+  <si>
     <t>房东的猫</t>
   </si>
   <si>
@@ -2606,6 +2864,12 @@
     <t>海底</t>
   </si>
   <si>
+    <t>黑Girl</t>
+  </si>
+  <si>
+    <t>123木头人</t>
+  </si>
+  <si>
     <t>花儿乐队</t>
   </si>
   <si>
@@ -2615,6 +2879,12 @@
     <t>果汁分你一半</t>
   </si>
   <si>
+    <t>可米小子</t>
+  </si>
+  <si>
+    <t>青春纪念册</t>
+  </si>
+  <si>
     <t>筷子兄弟</t>
   </si>
   <si>
@@ -2627,6 +2897,18 @@
     <t>小苹果</t>
   </si>
   <si>
+    <t>蜜雪薇琪</t>
+  </si>
+  <si>
+    <t>独立</t>
+  </si>
+  <si>
+    <t>南合文斗</t>
+  </si>
+  <si>
+    <t>让泪化作相思雨</t>
+  </si>
+  <si>
     <t>南拳妈妈</t>
   </si>
   <si>
@@ -2681,6 +2963,9 @@
     <t>夜空中最亮的星</t>
   </si>
   <si>
+    <t>一万次悲伤</t>
+  </si>
+  <si>
     <t>五月天</t>
   </si>
   <si>
@@ -2723,24 +3008,21 @@
     <t>死了都要爱</t>
   </si>
   <si>
+    <t>羽泉</t>
+  </si>
+  <si>
+    <t>奔跑</t>
+  </si>
+  <si>
+    <t>那一站</t>
+  </si>
+  <si>
     <t>至上励合</t>
   </si>
   <si>
     <t>棉花糖</t>
   </si>
   <si>
-    <t>可米小子</t>
-  </si>
-  <si>
-    <t>青春纪念册</t>
-  </si>
-  <si>
-    <t>Sweety</t>
-  </si>
-  <si>
-    <t>樱花草</t>
-  </si>
-  <si>
     <t>影视</t>
   </si>
   <si>
@@ -2825,6 +3107,18 @@
     <t>孝庄秘史</t>
   </si>
   <si>
+    <t>放羊的星星</t>
+  </si>
+  <si>
+    <t>我们的纪念</t>
+  </si>
+  <si>
+    <t>风云雄霸天下</t>
+  </si>
+  <si>
+    <t>永远永远</t>
+  </si>
+  <si>
     <t>动漫</t>
   </si>
   <si>
@@ -2964,6 +3258,15 @@
   </si>
   <si>
     <t>The day you went away</t>
+  </si>
+  <si>
+    <t>Daniel Powter</t>
+  </si>
+  <si>
+    <t>freeloop</t>
+  </si>
+  <si>
+    <t>cool kids</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3624,6 +3927,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3633,16 +3939,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3993,1727 +4302,1889 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BE99"/>
+  <dimension ref="A1:BE113"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.99115044247788" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.0973451327434" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.4690265486726" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.1061946902655" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.4690265486726" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.2743362831858" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.0442477876106" style="12" customWidth="1"/>
-    <col min="8" max="11" width="11.5044247787611" style="12" customWidth="1"/>
-    <col min="12" max="12" width="20.4690265486726" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.4070796460177" style="12" customWidth="1"/>
-    <col min="14" max="14" width="11.5044247787611" style="12" customWidth="1"/>
-    <col min="15" max="15" width="13.716814159292" style="12" customWidth="1"/>
-    <col min="16" max="16" width="9.4070796460177" style="12" customWidth="1"/>
-    <col min="17" max="17" width="16.0442477876106" style="12" customWidth="1"/>
-    <col min="18" max="19" width="9.4070796460177" style="12" customWidth="1"/>
-    <col min="20" max="20" width="11.5044247787611" style="12" customWidth="1"/>
-    <col min="21" max="21" width="7.41592920353982" style="12" customWidth="1"/>
-    <col min="22" max="23" width="13.716814159292" style="12" customWidth="1"/>
-    <col min="24" max="24" width="9.4070796460177" style="12" customWidth="1"/>
-    <col min="25" max="25" width="7.41592920353982" style="12" customWidth="1"/>
-    <col min="26" max="26" width="11.5044247787611" style="12" customWidth="1"/>
-    <col min="27" max="31" width="9.4070796460177" style="12" customWidth="1"/>
-    <col min="32" max="32" width="20.4690265486726" style="12" customWidth="1"/>
-    <col min="33" max="33" width="18.2566371681416" style="12" customWidth="1"/>
-    <col min="34" max="34" width="11.5044247787611" style="12" customWidth="1"/>
-    <col min="35" max="35" width="9.4070796460177" style="12" customWidth="1"/>
-    <col min="36" max="37" width="7.41592920353982" style="12" customWidth="1"/>
-    <col min="38" max="38" width="11.5044247787611" style="12" customWidth="1"/>
-    <col min="39" max="39" width="7.41592920353982" style="12" customWidth="1"/>
-    <col min="40" max="40" width="6.53982300884956" style="12" customWidth="1"/>
-    <col min="41" max="41" width="4.53982300884956" style="12" customWidth="1"/>
-    <col min="42" max="42" width="6.53982300884956" style="12" customWidth="1"/>
-    <col min="43" max="43" width="8.53097345132743" style="12" customWidth="1"/>
-    <col min="44" max="44" width="4.53982300884956" style="12" customWidth="1"/>
-    <col min="45" max="46" width="6.53982300884956" style="12" customWidth="1"/>
-    <col min="47" max="47" width="4.53982300884956" style="12" customWidth="1"/>
-    <col min="48" max="49" width="8.53097345132743" style="12" customWidth="1"/>
-    <col min="50" max="50" width="6.53982300884956" style="12" customWidth="1"/>
-    <col min="51" max="53" width="8.53097345132743" style="12" customWidth="1"/>
-    <col min="54" max="54" width="6.64601769911504" style="12" customWidth="1"/>
-    <col min="55" max="56" width="4.53982300884956" style="12" customWidth="1"/>
-    <col min="57" max="57" width="6.53982300884956" style="12" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="7.99115044247788" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10.0973451327434" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.4690265486726" style="13" customWidth="1"/>
+    <col min="4" max="4" width="27.1061946902655" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.4690265486726" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18.2743362831858" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.0442477876106" style="13" customWidth="1"/>
+    <col min="8" max="11" width="11.5044247787611" style="13" customWidth="1"/>
+    <col min="12" max="12" width="20.4690265486726" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.4070796460177" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11.5044247787611" style="13" customWidth="1"/>
+    <col min="15" max="15" width="13.716814159292" style="13" customWidth="1"/>
+    <col min="16" max="16" width="9.4070796460177" style="13" customWidth="1"/>
+    <col min="17" max="17" width="16.0442477876106" style="13" customWidth="1"/>
+    <col min="18" max="19" width="9.4070796460177" style="13" customWidth="1"/>
+    <col min="20" max="20" width="11.5044247787611" style="13" customWidth="1"/>
+    <col min="21" max="21" width="7.41592920353982" style="13" customWidth="1"/>
+    <col min="22" max="23" width="13.716814159292" style="13" customWidth="1"/>
+    <col min="24" max="24" width="9.4070796460177" style="13" customWidth="1"/>
+    <col min="25" max="25" width="7.41592920353982" style="13" customWidth="1"/>
+    <col min="26" max="26" width="11.5044247787611" style="13" customWidth="1"/>
+    <col min="27" max="31" width="9.4070796460177" style="13" customWidth="1"/>
+    <col min="32" max="32" width="20.4690265486726" style="13" customWidth="1"/>
+    <col min="33" max="33" width="18.2566371681416" style="13" customWidth="1"/>
+    <col min="34" max="34" width="11.5044247787611" style="13" customWidth="1"/>
+    <col min="35" max="35" width="9.4070796460177" style="13" customWidth="1"/>
+    <col min="36" max="37" width="7.41592920353982" style="13" customWidth="1"/>
+    <col min="38" max="38" width="11.5044247787611" style="13" customWidth="1"/>
+    <col min="39" max="39" width="7.41592920353982" style="13" customWidth="1"/>
+    <col min="40" max="40" width="6.53982300884956" style="13" customWidth="1"/>
+    <col min="41" max="41" width="4.53982300884956" style="13" customWidth="1"/>
+    <col min="42" max="42" width="6.53982300884956" style="13" customWidth="1"/>
+    <col min="43" max="43" width="8.53097345132743" style="13" customWidth="1"/>
+    <col min="44" max="44" width="4.53982300884956" style="13" customWidth="1"/>
+    <col min="45" max="46" width="6.53982300884956" style="13" customWidth="1"/>
+    <col min="47" max="47" width="4.53982300884956" style="13" customWidth="1"/>
+    <col min="48" max="49" width="8.53097345132743" style="13" customWidth="1"/>
+    <col min="50" max="50" width="6.53982300884956" style="13" customWidth="1"/>
+    <col min="51" max="53" width="8.53097345132743" style="13" customWidth="1"/>
+    <col min="54" max="54" width="6.64601769911504" style="13" customWidth="1"/>
+    <col min="55" max="56" width="4.53982300884956" style="13" customWidth="1"/>
+    <col min="57" max="57" width="6.53982300884956" style="13" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4"/>
-      <c r="B8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="12" t="s">
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="J9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="M9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="O9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="Q9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="R9" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13" t="s">
+      <c r="S9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="T9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="U9" s="13" t="s">
         <v>56</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
-      <c r="B10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="D10" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4"/>
-      <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="13" t="s">
+      <c r="F12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4"/>
-      <c r="B14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4"/>
-      <c r="B15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="12" t="s">
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4"/>
+      <c r="B16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="13" t="s">
+      <c r="I16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="J16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="K16" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="L16" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4"/>
-      <c r="B17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="I18" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="J18" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
-      <c r="B19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4"/>
+      <c r="B20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="I20" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="J20" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="K20" s="13" t="s">
         <v>122</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4"/>
-      <c r="B23" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>133</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
-      <c r="B24" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
-      <c r="B25" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>140</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4"/>
-      <c r="B26" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4"/>
-      <c r="B27" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
-      <c r="B28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="C28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
-      <c r="B29" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
-      <c r="B30" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
-      <c r="B31" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="B31" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4"/>
-      <c r="B32" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>164</v>
+      <c r="B32" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4"/>
-      <c r="B33" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
-      <c r="B34" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="B34" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4"/>
-      <c r="B35" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="B35" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
-      <c r="B36" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:57">
+      <c r="B36" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4"/>
-      <c r="B37" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="F37" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M37" s="12" t="s">
+    </row>
+    <row r="38" spans="1:57">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="C38" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="O37" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="F38" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="R37" s="12" t="s">
+      <c r="G38" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="S37" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="T37" s="12" t="s">
+      <c r="I38" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="U37" s="12" t="s">
+      <c r="J38" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="V37" s="12" t="s">
+      <c r="K38" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="W37" s="12" t="s">
+      <c r="L38" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="X37" s="12" t="s">
+      <c r="M38" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="Y37" s="12" t="s">
+      <c r="N38" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="Z37" s="12" t="s">
+      <c r="O38" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="AA37" s="12" t="s">
+      <c r="P38" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="AB37" s="12" t="s">
+      <c r="Q38" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="AC37" s="12" t="s">
+      <c r="R38" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="AD37" s="12" t="s">
+      <c r="S38" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="AE37" s="12" t="s">
+      <c r="T38" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="AF37" s="12" t="s">
+      <c r="U38" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="AG37" s="12" t="s">
+      <c r="V38" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="AH37" s="12" t="s">
+      <c r="W38" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AI37" s="12" t="s">
+      <c r="X38" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AJ37" s="12" t="s">
+      <c r="Y38" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="AK37" s="12" t="s">
+      <c r="Z38" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="AL37" s="12" t="s">
+      <c r="AA38" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="AM37" s="12" t="s">
+      <c r="AB38" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="AN37" s="12" t="s">
+      <c r="AC38" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="AO37" s="12" t="s">
+      <c r="AD38" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AP37" s="12" t="s">
+      <c r="AE38" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="AQ37" s="12" t="s">
+      <c r="AF38" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="AR37" s="12" t="s">
+      <c r="AG38" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="AS37" s="12" t="s">
+      <c r="AH38" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="AT37" s="12" t="s">
+      <c r="AI38" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="AU37" s="12" t="s">
+      <c r="AJ38" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="AV37" s="12" t="s">
+      <c r="AK38" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="AW37" s="12" t="s">
+      <c r="AL38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="AX37" s="12" t="s">
+      <c r="AM38" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="AY37" s="12" t="s">
+      <c r="AN38" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="AZ37" s="12" t="s">
+      <c r="AO38" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="BA37" s="12" t="s">
+      <c r="AP38" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="BB37" s="12" t="s">
+      <c r="AQ38" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="BC37" s="12" t="s">
+      <c r="AR38" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="BD37" s="12" t="s">
+      <c r="AS38" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="BE37" s="12" t="s">
+      <c r="AT38" s="13" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4" t="s">
+      <c r="AU38" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="AV38" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="AW38" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="AX38" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="AY38" s="13" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="13" t="s">
+      <c r="AZ38" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="BA38" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="BB38" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="BC38" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD38" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="BE38" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4"/>
-      <c r="B41" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
-      <c r="B42" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>255</v>
+      <c r="B42" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
-      <c r="B43" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="B43" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4"/>
-      <c r="B44" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="4"/>
-      <c r="B45" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="B45" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="4"/>
-      <c r="B46" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="B46" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="4"/>
-      <c r="B47" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="B47" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
-      <c r="B48" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="B48" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
-      <c r="B49" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="B50" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4"/>
-      <c r="B51" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="B51" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
-      <c r="B52" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
-      <c r="B53" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>298</v>
+      <c r="B53" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4"/>
-      <c r="B54" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="B54" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4"/>
-      <c r="B55" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="B55" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="4"/>
-      <c r="B56" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G56" s="12" t="s">
+      <c r="B56" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="D56" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="E56" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="F56" s="13" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="13" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="E57" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
-      <c r="B58" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+      <c r="B58" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4"/>
-      <c r="B59" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="F59" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="C59" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="D59" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="E59" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="F59" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="K59" s="12" t="s">
+      <c r="G59" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="L59" s="12" t="s">
+      <c r="H59" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="M59" s="12" t="s">
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="N59" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="D60" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="P59" s="12" t="s">
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="4"/>
+      <c r="B61" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="Q59" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="R59" s="12" t="s">
+      <c r="D61" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="S59" s="12" t="s">
+      <c r="E61" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="T59" s="12" t="s">
+      <c r="F61" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="U59" s="12" t="s">
+      <c r="G61" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="V59" s="12" t="s">
+      <c r="H61" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="W59" s="12" t="s">
+      <c r="I61" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="X59" s="12" t="s">
+      <c r="J61" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="Y59" s="12" t="s">
+      <c r="K61" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="Z59" s="12" t="s">
+      <c r="L61" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="AA59" s="12" t="s">
+      <c r="M61" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="AB59" s="12" t="s">
+      <c r="N61" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="AC59" s="12" t="s">
+      <c r="O61" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AD59" s="12" t="s">
+      <c r="P61" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="AE59" s="12" t="s">
+      <c r="Q61" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="AF59" s="12" t="s">
+      <c r="R61" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AG59" s="12" t="s">
+      <c r="S61" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="AH59" s="12" t="s">
+      <c r="T61" s="13" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13" t="s">
+      <c r="U61" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="V61" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="W61" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="X61" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="F60" s="12" t="s">
+      <c r="Y61" s="13" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13" t="s">
+      <c r="Z61" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="AA61" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="AB61" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="AC61" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="AD61" s="13" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="AE61" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF61" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG61" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH61" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
-      <c r="B62" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="F62" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="H62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="D62" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="4"/>
-      <c r="B63" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="C63" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="4"/>
-      <c r="B64" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="4"/>
-      <c r="B65" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>252</v>
+      <c r="B65" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4"/>
+      <c r="B66" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>394</v>
+      <c r="A69" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
-      <c r="B70" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>396</v>
+      <c r="B70" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
-      <c r="B71" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>398</v>
+      <c r="B71" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
-      <c r="B72" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>400</v>
+      <c r="B72" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4"/>
-      <c r="B73" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>402</v>
+      <c r="B73" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4"/>
-      <c r="B74" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>404</v>
+      <c r="B74" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4"/>
-      <c r="B75" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>406</v>
+      <c r="B75" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4"/>
-      <c r="B76" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>408</v>
+      <c r="B76" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4"/>
-      <c r="B77" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>410</v>
+      <c r="B77" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4"/>
-      <c r="B78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>412</v>
+      <c r="B78" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4"/>
-      <c r="B79" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>414</v>
+      <c r="B79" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4"/>
-      <c r="B80" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>416</v>
+      <c r="B80" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4"/>
-      <c r="B81" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>418</v>
+      <c r="B81" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4"/>
-      <c r="B82" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>420</v>
+      <c r="B82" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4"/>
-      <c r="B83" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>422</v>
+      <c r="B83" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4"/>
-      <c r="B84" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>424</v>
+      <c r="B84" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4"/>
-      <c r="B85" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>426</v>
+      <c r="B85" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4"/>
-      <c r="B86" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>428</v>
+      <c r="B86" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4"/>
-      <c r="B87" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>430</v>
+      <c r="B87" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4"/>
-      <c r="B88" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>432</v>
+      <c r="B88" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4"/>
-      <c r="B89" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>434</v>
+      <c r="B89" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4"/>
-      <c r="B90" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>436</v>
+      <c r="B90" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4"/>
-      <c r="B91" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>438</v>
+      <c r="B91" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4"/>
-      <c r="B92" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>440</v>
+      <c r="B92" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4"/>
-      <c r="B93" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>442</v>
+      <c r="B93" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4"/>
-      <c r="B94" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>444</v>
+      <c r="B94" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4"/>
-      <c r="B95" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>446</v>
+      <c r="B95" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="B96" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="4"/>
       <c r="B97" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
+        <v>458</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4"/>
       <c r="B99" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>453</v>
+        <v>462</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C101" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="4"/>
+      <c r="B102" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4"/>
+      <c r="B103" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B39:BD64">
-    <sortCondition ref="B39"/>
+  <sortState ref="B69:C113">
+    <sortCondition ref="B69"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A1:A37"/>
-    <mergeCell ref="A39:A65"/>
-    <mergeCell ref="A67:A96"/>
+    <mergeCell ref="A1:A38"/>
+    <mergeCell ref="A40:A67"/>
+    <mergeCell ref="A69:A113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5724,10 +6195,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5753,1467 +6224,1673 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C2" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="F2" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="I2" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="J2" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="K2" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="L2" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="M2" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="N2" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="O2" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="P2" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="Q2" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="R2" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="C3" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="G3" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="D5" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="D6" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
       <c r="E6" t="s">
-        <v>490</v>
-      </c>
-      <c r="F6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="C7" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>531</v>
+      </c>
+      <c r="F7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="D8" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="E8" t="s">
-        <v>499</v>
-      </c>
-      <c r="F8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="E9" t="s">
-        <v>504</v>
+        <v>540</v>
+      </c>
+      <c r="F9" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="E10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="C11" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>548</v>
+      </c>
+      <c r="E11" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="C12" t="s">
-        <v>513</v>
+        <v>551</v>
       </c>
       <c r="D12" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>553</v>
+      </c>
+      <c r="C13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C14" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" t="s">
-        <v>520</v>
-      </c>
-      <c r="E14" t="s">
-        <v>521</v>
-      </c>
-      <c r="F14" t="s">
-        <v>522</v>
-      </c>
-      <c r="G14" t="s">
-        <v>523</v>
-      </c>
-      <c r="H14" t="s">
-        <v>524</v>
-      </c>
-      <c r="I14" t="s">
-        <v>525</v>
-      </c>
-      <c r="J14" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>556</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D15" t="s">
-        <v>529</v>
+        <v>561</v>
+      </c>
+      <c r="E15" t="s">
+        <v>562</v>
+      </c>
+      <c r="F15" t="s">
+        <v>563</v>
+      </c>
+      <c r="G15" t="s">
+        <v>564</v>
+      </c>
+      <c r="H15" t="s">
+        <v>565</v>
+      </c>
+      <c r="I15" t="s">
+        <v>566</v>
+      </c>
+      <c r="J15" t="s">
+        <v>567</v>
+      </c>
+      <c r="K15" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="C16" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="D16" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="C17" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="D17" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="C18" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="D18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E18" t="s">
-        <v>539</v>
-      </c>
-      <c r="F18" t="s">
-        <v>540</v>
-      </c>
-      <c r="G18" t="s">
-        <v>541</v>
-      </c>
-      <c r="H18" t="s">
-        <v>542</v>
-      </c>
-      <c r="I18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="D19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>580</v>
+      </c>
+      <c r="E19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F19" t="s">
+        <v>582</v>
+      </c>
+      <c r="G19" t="s">
+        <v>583</v>
+      </c>
+      <c r="H19" t="s">
+        <v>584</v>
+      </c>
+      <c r="I19" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="C20" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
-      </c>
-      <c r="E20" t="s">
-        <v>550</v>
-      </c>
-      <c r="F20" t="s">
-        <v>551</v>
-      </c>
-      <c r="G20" t="s">
-        <v>552</v>
-      </c>
-      <c r="H20" t="s">
-        <v>553</v>
-      </c>
-      <c r="I20" t="s">
-        <v>554</v>
-      </c>
-      <c r="J20" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="C21" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="D21" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="E21" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="F21" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>593</v>
+      </c>
+      <c r="G21" t="s">
+        <v>594</v>
+      </c>
+      <c r="H21" t="s">
+        <v>595</v>
+      </c>
+      <c r="I21" t="s">
+        <v>596</v>
+      </c>
+      <c r="J21" t="s">
+        <v>597</v>
+      </c>
+      <c r="K21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="C22" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="D22" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="E22" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
-      </c>
-      <c r="G22" t="s">
-        <v>566</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>567</v>
-      </c>
-      <c r="J22" t="s">
-        <v>568</v>
-      </c>
-      <c r="K22" t="s">
-        <v>569</v>
-      </c>
-      <c r="L22" t="s">
-        <v>570</v>
-      </c>
-      <c r="M22" t="s">
-        <v>571</v>
-      </c>
-      <c r="N22" t="s">
-        <v>572</v>
-      </c>
-      <c r="O22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="C23" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="D23" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>606</v>
+      </c>
+      <c r="E23" t="s">
+        <v>607</v>
+      </c>
+      <c r="F23" t="s">
+        <v>608</v>
+      </c>
+      <c r="G23" t="s">
+        <v>609</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>610</v>
+      </c>
+      <c r="J23" t="s">
+        <v>611</v>
+      </c>
+      <c r="K23" t="s">
+        <v>612</v>
+      </c>
+      <c r="L23" t="s">
+        <v>613</v>
+      </c>
+      <c r="M23" t="s">
+        <v>614</v>
+      </c>
+      <c r="N23" t="s">
+        <v>615</v>
+      </c>
+      <c r="O23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="D24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E24" t="s">
-        <v>579</v>
-      </c>
-      <c r="F24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G24" t="s">
-        <v>581</v>
-      </c>
-      <c r="H24" t="s">
-        <v>582</v>
-      </c>
-      <c r="I24" t="s">
-        <v>583</v>
-      </c>
-      <c r="J24" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="C25" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="D25" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>621</v>
+      </c>
+      <c r="E25" t="s">
+        <v>622</v>
+      </c>
+      <c r="F25" t="s">
+        <v>623</v>
+      </c>
+      <c r="G25" t="s">
+        <v>624</v>
+      </c>
+      <c r="H25" t="s">
+        <v>625</v>
+      </c>
+      <c r="I25" t="s">
+        <v>626</v>
+      </c>
+      <c r="J25" t="s">
+        <v>627</v>
+      </c>
+      <c r="K25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>588</v>
+        <v>629</v>
       </c>
       <c r="C26" t="s">
-        <v>589</v>
+        <v>630</v>
       </c>
       <c r="D26" t="s">
-        <v>590</v>
-      </c>
-      <c r="E26" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="C27" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="D27" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="E27" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="F27" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>636</v>
+      </c>
+      <c r="G27" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="C28" t="s">
-        <v>598</v>
+        <v>639</v>
       </c>
       <c r="D28" t="s">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="E28" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>641</v>
+      </c>
+      <c r="F28" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="C29" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="D29" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="E29" t="s">
-        <v>604</v>
-      </c>
-      <c r="F29" t="s">
-        <v>605</v>
-      </c>
-      <c r="G29" t="s">
-        <v>606</v>
-      </c>
-      <c r="H29" t="s">
-        <v>607</v>
-      </c>
-      <c r="I29" t="s">
-        <v>608</v>
-      </c>
-      <c r="J29" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C31" t="s">
-        <v>611</v>
-      </c>
-      <c r="D31" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" ht="13" customHeight="1" spans="1:6">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C30" t="s">
+        <v>648</v>
+      </c>
+      <c r="D30" t="s">
+        <v>649</v>
+      </c>
+      <c r="E30" t="s">
+        <v>650</v>
+      </c>
+      <c r="F30" t="s">
+        <v>651</v>
+      </c>
+      <c r="G30" t="s">
+        <v>652</v>
+      </c>
+      <c r="H30" t="s">
+        <v>653</v>
+      </c>
+      <c r="I30" t="s">
+        <v>654</v>
+      </c>
+      <c r="J30" t="s">
+        <v>655</v>
+      </c>
+      <c r="K30" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="C32" t="s">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="D32" t="s">
-        <v>615</v>
+        <v>659</v>
       </c>
       <c r="E32" t="s">
-        <v>616</v>
-      </c>
-      <c r="F32" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" ht="13" customHeight="1" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="C33" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="D33" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>663</v>
+      </c>
+      <c r="E33" t="s">
+        <v>664</v>
+      </c>
+      <c r="F33" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="D34" t="s">
-        <v>623</v>
-      </c>
-      <c r="E34" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="C35" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="D35" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="E35" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>629</v>
+        <v>673</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="D36" t="s">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="E36" t="s">
-        <v>632</v>
-      </c>
-      <c r="F36" t="s">
-        <v>633</v>
-      </c>
-      <c r="G36" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="C37" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="D37" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="E37" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="F37" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>681</v>
+      </c>
+      <c r="G37" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="C38" t="s">
-        <v>641</v>
+        <v>684</v>
       </c>
       <c r="D38" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="E38" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>686</v>
+      </c>
+      <c r="F38" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="C39" t="s">
-        <v>645</v>
+        <v>689</v>
       </c>
       <c r="D39" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
       <c r="E39" t="s">
-        <v>647</v>
-      </c>
-      <c r="F39" t="s">
-        <v>648</v>
-      </c>
-      <c r="G39" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="C40" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="D40" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="E40" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>695</v>
+      </c>
+      <c r="F40" t="s">
+        <v>696</v>
+      </c>
+      <c r="G40" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
-        <v>654</v>
+        <v>698</v>
       </c>
       <c r="C41" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>699</v>
+      </c>
+      <c r="D41" t="s">
+        <v>700</v>
+      </c>
+      <c r="E41" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="C42" t="s">
-        <v>657</v>
-      </c>
-      <c r="D42" t="s">
-        <v>658</v>
-      </c>
-      <c r="E42" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
-        <v>660</v>
+        <v>704</v>
       </c>
       <c r="C43" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
       <c r="D43" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>706</v>
+      </c>
+      <c r="E43" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="C44" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="D44" t="s">
-        <v>665</v>
-      </c>
-      <c r="E44" t="s">
-        <v>666</v>
-      </c>
-      <c r="F44" t="s">
-        <v>667</v>
-      </c>
-      <c r="G44" t="s">
-        <v>668</v>
-      </c>
-      <c r="H44" t="s">
-        <v>669</v>
-      </c>
-      <c r="I44" t="s">
-        <v>670</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="C45" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="D45" t="s">
-        <v>673</v>
+        <v>713</v>
+      </c>
+      <c r="E45" t="s">
+        <v>714</v>
+      </c>
+      <c r="F45" t="s">
+        <v>715</v>
+      </c>
+      <c r="G45" t="s">
+        <v>716</v>
+      </c>
+      <c r="H45" t="s">
+        <v>717</v>
+      </c>
+      <c r="I45" t="s">
+        <v>718</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="C46" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="D46" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="C47" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="D47" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="C48" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="D48" t="s">
-        <v>682</v>
-      </c>
-      <c r="E48" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="C49" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="D49" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
       <c r="E49" t="s">
-        <v>687</v>
-      </c>
-      <c r="F49" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
-        <v>689</v>
+        <v>732</v>
       </c>
       <c r="C50" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="D50" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
       <c r="E50" t="s">
-        <v>692</v>
+        <v>735</v>
+      </c>
+      <c r="F50" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
-        <v>693</v>
+        <v>737</v>
       </c>
       <c r="C51" t="s">
-        <v>694</v>
+        <v>738</v>
       </c>
       <c r="D51" t="s">
-        <v>695</v>
+        <v>739</v>
       </c>
       <c r="E51" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="C53" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C52" t="s">
+        <v>742</v>
+      </c>
+      <c r="D52" t="s">
+        <v>743</v>
+      </c>
+      <c r="E52" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>745</v>
+      </c>
       <c r="B54" s="5" t="s">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="C54" t="s">
-        <v>701</v>
-      </c>
-      <c r="D54" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
-        <v>703</v>
+        <v>748</v>
       </c>
       <c r="C55" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="D55" t="s">
-        <v>705</v>
-      </c>
-      <c r="E55" t="s">
-        <v>706</v>
-      </c>
-      <c r="F55" t="s">
-        <v>707</v>
-      </c>
-      <c r="G55" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="C56" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="D56" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>753</v>
+      </c>
+      <c r="E56" t="s">
+        <v>754</v>
+      </c>
+      <c r="F56" t="s">
+        <v>755</v>
+      </c>
+      <c r="G56" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c r="C57" t="s">
-        <v>713</v>
+        <v>758</v>
+      </c>
+      <c r="D57" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="C58" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="C59" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
-        <v>718</v>
+        <v>764</v>
       </c>
       <c r="C60" t="s">
-        <v>719</v>
-      </c>
-      <c r="D60" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c r="C61" t="s">
-        <v>722</v>
+        <v>767</v>
+      </c>
+      <c r="D61" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
-        <v>723</v>
+        <v>769</v>
       </c>
       <c r="C62" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="C63" t="s">
-        <v>726</v>
-      </c>
-      <c r="D63" t="s">
-        <v>727</v>
-      </c>
-      <c r="E63" t="s">
-        <v>728</v>
-      </c>
-      <c r="F63" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="C64" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>774</v>
+      </c>
+      <c r="D64" t="s">
+        <v>775</v>
+      </c>
+      <c r="E64" t="s">
+        <v>776</v>
+      </c>
+      <c r="F64" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
-        <v>732</v>
+        <v>778</v>
       </c>
       <c r="C65" t="s">
-        <v>733</v>
-      </c>
-      <c r="D65" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="C66" t="s">
-        <v>736</v>
+        <v>781</v>
       </c>
       <c r="D66" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c r="C67" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="C70" t="s">
-        <v>741</v>
+        <v>784</v>
+      </c>
+      <c r="D67" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="C68" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="10"/>
+      <c r="A71" s="11" t="s">
+        <v>404</v>
+      </c>
       <c r="B71" s="5" t="s">
-        <v>742</v>
+        <v>788</v>
       </c>
       <c r="C71" t="s">
-        <v>743</v>
+        <v>789</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="5" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="C72" t="s">
-        <v>745</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="10"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="5" t="s">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="C73" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="5" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="C74" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="10"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="5" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
       <c r="C75" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="5" t="s">
-        <v>752</v>
+        <v>798</v>
       </c>
       <c r="C76" t="s">
-        <v>753</v>
+        <v>799</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="10"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="5" t="s">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="C77" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="10"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="5" t="s">
-        <v>756</v>
+        <v>802</v>
       </c>
       <c r="C78" t="s">
-        <v>757</v>
+        <v>803</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="5" t="s">
-        <v>758</v>
+        <v>804</v>
       </c>
       <c r="C79" t="s">
-        <v>759</v>
+        <v>805</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="C80" t="s">
-        <v>761</v>
+      <c r="A80" s="11"/>
+      <c r="B80" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="10"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="5" t="s">
-        <v>762</v>
+        <v>808</v>
       </c>
       <c r="C81" t="s">
-        <v>763</v>
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="10"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="5" t="s">
-        <v>764</v>
+        <v>810</v>
       </c>
       <c r="C82" t="s">
-        <v>765</v>
+        <v>811</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="10"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="5" t="s">
-        <v>766</v>
+        <v>812</v>
       </c>
       <c r="C83" t="s">
-        <v>767</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="10"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="5" t="s">
-        <v>768</v>
+        <v>814</v>
       </c>
       <c r="C84" t="s">
-        <v>769</v>
+        <v>815</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="10"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="5" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="C85" t="s">
-        <v>771</v>
+        <v>817</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="10"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="5" t="s">
-        <v>772</v>
+        <v>818</v>
       </c>
       <c r="C86" t="s">
-        <v>773</v>
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="10"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="5" t="s">
-        <v>774</v>
+        <v>820</v>
       </c>
       <c r="C87" t="s">
-        <v>775</v>
+        <v>821</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="10"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="5" t="s">
-        <v>776</v>
+        <v>822</v>
       </c>
       <c r="C88" t="s">
-        <v>777</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="10"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="5" t="s">
-        <v>778</v>
+        <v>824</v>
       </c>
       <c r="C89" t="s">
-        <v>779</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="10"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="5" t="s">
-        <v>780</v>
+        <v>826</v>
       </c>
       <c r="C90" t="s">
-        <v>781</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="10"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="5" t="s">
-        <v>782</v>
+        <v>828</v>
       </c>
       <c r="C91" t="s">
-        <v>783</v>
+        <v>829</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="10"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="5" t="s">
-        <v>784</v>
+        <v>559</v>
       </c>
       <c r="C92" t="s">
-        <v>785</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="10"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="5" t="s">
-        <v>786</v>
+        <v>831</v>
       </c>
       <c r="C93" t="s">
-        <v>787</v>
+        <v>832</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="11" t="s">
+      <c r="A94" s="11"/>
+      <c r="B94" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C94" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="11"/>
+      <c r="B95" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C95" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="11"/>
+      <c r="B96" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C96" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="11"/>
+      <c r="B97" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="C97" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="11"/>
+      <c r="B98" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C98" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="11"/>
+      <c r="B99" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C99" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="11"/>
+      <c r="B100" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C100" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="11"/>
+      <c r="B101" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="C101" t="s">
+        <v>848</v>
+      </c>
+      <c r="D101" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="11"/>
+      <c r="B102" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C102" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="11"/>
+      <c r="B103" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="C103" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="11"/>
+      <c r="B104" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="C104" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="11"/>
+      <c r="B105" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C105" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C106" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="11"/>
+      <c r="B107" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C107" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="11"/>
+      <c r="B108" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C108" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="11"/>
+      <c r="B109" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C109" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="11"/>
+      <c r="B110" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="C110" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="11"/>
+      <c r="B111" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C111" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C112" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="11"/>
+      <c r="B113" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C113" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="11"/>
+      <c r="B114" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C114" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="11"/>
+      <c r="B115" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C115" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="11"/>
+      <c r="B116" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="C116" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="11"/>
+      <c r="B117" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="C117" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="11"/>
+      <c r="B118" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C118" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="11"/>
+      <c r="B119" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C119" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="11"/>
+      <c r="B120" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C120" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="11"/>
+      <c r="B121" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C121" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="11"/>
+      <c r="B122" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="C122" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="11"/>
+      <c r="B123" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="10"/>
-      <c r="B95" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="C95" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="10"/>
-      <c r="B96" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="C96" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="10"/>
-      <c r="B97" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="C97" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="10"/>
-      <c r="B98" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="C98" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="5"/>
-      <c r="C99" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="10"/>
-      <c r="B100" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="C100" t="s">
-        <v>799</v>
-      </c>
-      <c r="D100" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="10"/>
-      <c r="B101" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="C101" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="10"/>
-      <c r="B102" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="C102" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="10"/>
-      <c r="B103" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="C103" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="C104" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="C105" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="10"/>
-      <c r="B106" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="C106" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="C107" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="C108" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="C109" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="C110" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="C111" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" t="s">
-        <v>822</v>
-      </c>
-      <c r="C112" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" t="s">
-        <v>824</v>
-      </c>
-      <c r="C113" t="s">
-        <v>825</v>
+      <c r="C123" s="10" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="11"/>
+      <c r="B124" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C124" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="11"/>
+      <c r="B125" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C125" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="11"/>
+      <c r="B126" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C126" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="11"/>
+      <c r="B127" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C127" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="11"/>
+      <c r="B128" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C128" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="11"/>
+      <c r="B129" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C129" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="11"/>
+      <c r="B130" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C130" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="11"/>
+      <c r="B131" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C131" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="11"/>
+      <c r="B132" s="5"/>
+      <c r="C132" t="s">
+        <v>906</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B71:C132">
+    <sortCondition ref="B71"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="A1:A29"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="A70:A108"/>
+    <mergeCell ref="A1:A30"/>
+    <mergeCell ref="A32:A52"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A71:A132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7227,7 +7904,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7245,24 +7922,16 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:20">
-      <c r="A1" s="5" t="s">
-        <v>826</v>
+      <c r="A1" s="8">
+        <v>5566</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>831</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -7280,15 +7949,23 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
-        <v>832</v>
+        <v>908</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>909</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>913</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7306,14 +7983,12 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
-        <v>834</v>
+        <v>914</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>836</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -7334,32 +8009,20 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
-        <v>837</v>
+        <v>916</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>838</v>
+        <v>917</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>844</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -7374,20 +8037,32 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
-        <v>845</v>
+        <v>919</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>846</v>
+        <v>920</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>926</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -7402,14 +8077,12 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
-        <v>848</v>
+        <v>927</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -7430,23 +8103,17 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>850</v>
+        <v>929</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>851</v>
+        <v>930</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>855</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -7464,10 +8131,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
-        <v>856</v>
+        <v>932</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>857</v>
+        <v>933</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -7490,17 +8157,15 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
-        <v>858</v>
+        <v>934</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>859</v>
+        <v>935</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>861</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7520,17 +8185,23 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
-        <v>862</v>
+        <v>936</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>863</v>
+        <v>937</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>938</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>941</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7548,17 +8219,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>865</v>
+        <v>942</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>868</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -7578,13 +8245,17 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
-        <v>869</v>
+        <v>944</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>945</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7604,10 +8275,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>871</v>
+        <v>948</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>872</v>
+        <v>949</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7630,20 +8301,16 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>874</v>
+        <v>951</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>877</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -7662,17 +8329,13 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
-        <v>878</v>
+        <v>953</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>881</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -7692,15 +8355,17 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>882</v>
+        <v>955</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>883</v>
+        <v>956</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>957</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>958</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7720,10 +8385,10 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
-        <v>885</v>
+        <v>959</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>886</v>
+        <v>960</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7746,32 +8411,18 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
-        <v>887</v>
+        <v>961</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>895</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -7786,14 +8437,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
-        <v>896</v>
+        <v>963</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>897</v>
-      </c>
+        <v>964</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -7814,14 +8463,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>898</v>
+        <v>965</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>900</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -7842,14 +8489,20 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>901</v>
+        <v>967</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>968</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>971</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -7868,13 +8521,17 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>973</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>975</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7894,12 +8551,14 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
-        <v>905</v>
+        <v>976</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>977</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>978</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -7918,9 +8577,16 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:20">
+      <c r="A24" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>981</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -7939,15 +8605,34 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+    <row r="25" spans="1:20">
+      <c r="A25" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>990</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -7960,9 +8645,16 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="2:20">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+    <row r="26" spans="1:20">
+      <c r="A26" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>992</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -7981,9 +8673,16 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:20">
+      <c r="A27" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>995</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -8002,9 +8701,16 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="1:20">
+      <c r="A28" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>998</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -8023,8 +8729,13 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:20">
+      <c r="A29" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1000</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -8171,8 +8882,8 @@
       <c r="T35" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A1:C23">
-    <sortCondition ref="A2"/>
+  <sortState ref="A1:I29">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8185,8 +8896,8 @@
   <sheetPr/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
@@ -8201,133 +8912,143 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>907</v>
+        <v>1001</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>908</v>
+        <v>1002</v>
       </c>
       <c r="C1" t="s">
-        <v>909</v>
+        <v>1003</v>
       </c>
       <c r="D1" t="s">
-        <v>910</v>
+        <v>1004</v>
       </c>
       <c r="E1" t="s">
-        <v>911</v>
+        <v>1005</v>
       </c>
       <c r="F1" t="s">
-        <v>912</v>
+        <v>1006</v>
       </c>
       <c r="G1" t="s">
-        <v>913</v>
+        <v>1007</v>
       </c>
       <c r="H1" t="s">
-        <v>914</v>
+        <v>1008</v>
       </c>
       <c r="I1" t="s">
-        <v>915</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>916</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="s">
-        <v>917</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>918</v>
+        <v>1012</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>918</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>919</v>
+        <v>1013</v>
       </c>
       <c r="C4" t="s">
-        <v>920</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>921</v>
+        <v>1015</v>
       </c>
       <c r="C5" t="s">
-        <v>922</v>
+        <v>1016</v>
       </c>
       <c r="D5" t="s">
-        <v>923</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>924</v>
+        <v>1018</v>
       </c>
       <c r="C6" t="s">
-        <v>925</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>926</v>
+        <v>1020</v>
       </c>
       <c r="C7" t="s">
-        <v>927</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>928</v>
+        <v>1022</v>
       </c>
       <c r="C8" t="s">
-        <v>929</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>930</v>
+        <v>1024</v>
       </c>
       <c r="C9" t="s">
-        <v>931</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>932</v>
+        <v>1026</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>933</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>934</v>
+        <v>1028</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4"/>
@@ -8335,176 +9056,176 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>935</v>
+        <v>1033</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>936</v>
+        <v>1034</v>
       </c>
       <c r="C19" t="s">
-        <v>937</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>938</v>
+        <v>1036</v>
       </c>
       <c r="C20" t="s">
-        <v>939</v>
+        <v>1037</v>
       </c>
       <c r="D20" t="s">
-        <v>940</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>941</v>
+        <v>1039</v>
       </c>
       <c r="C21" t="s">
-        <v>942</v>
+        <v>1040</v>
       </c>
       <c r="D21" t="s">
-        <v>943</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>944</v>
+        <v>1042</v>
       </c>
       <c r="C22" t="s">
-        <v>945</v>
+        <v>1043</v>
       </c>
       <c r="D22" t="s">
-        <v>946</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>947</v>
+        <v>1045</v>
       </c>
       <c r="C23" t="s">
-        <v>947</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>876</v>
+        <v>970</v>
       </c>
       <c r="C24" t="s">
-        <v>876</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>948</v>
+        <v>1046</v>
       </c>
       <c r="C25" t="s">
-        <v>949</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>950</v>
+        <v>1048</v>
       </c>
       <c r="C27" t="s">
-        <v>951</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>952</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>953</v>
+        <v>1051</v>
       </c>
       <c r="C29" t="s">
-        <v>954</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>955</v>
+        <v>1053</v>
       </c>
       <c r="C30" t="s">
-        <v>956</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>957</v>
+        <v>1055</v>
       </c>
       <c r="C31" t="s">
-        <v>958</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>959</v>
+        <v>1057</v>
       </c>
       <c r="C32" t="s">
-        <v>959</v>
+        <v>1057</v>
       </c>
       <c r="D32" t="s">
-        <v>960</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>961</v>
+        <v>1059</v>
       </c>
       <c r="C33" t="s">
-        <v>962</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>963</v>
+        <v>1061</v>
       </c>
       <c r="C34" t="s">
-        <v>964</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
-        <v>965</v>
+        <v>1063</v>
       </c>
       <c r="C35" t="s">
-        <v>966</v>
+        <v>1064</v>
       </c>
       <c r="D35" t="s">
-        <v>967</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
-        <v>968</v>
+        <v>1066</v>
       </c>
       <c r="C36" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8521,10 +9242,10 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>970</v>
+        <v>1068</v>
       </c>
       <c r="B49" t="s">
-        <v>971</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -8576,8 +9297,8 @@
   <sheetPr/>
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
@@ -8589,10 +9310,10 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>972</v>
+        <v>1070</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>973</v>
+        <v>1071</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -8833,7 +9554,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>974</v>
+        <v>1072</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9075,7 +9796,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>975</v>
+        <v>1073</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -9377,13 +10098,13 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
-        <v>976</v>
+        <v>1074</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>977</v>
+        <v>1075</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>978</v>
+        <v>1076</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -9414,7 +10135,7 @@
     <row r="28" spans="1:28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>979</v>
+        <v>1077</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9446,7 +10167,7 @@
     <row r="29" spans="1:28">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>980</v>
+        <v>1078</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -9479,7 +10200,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>981</v>
+        <v>1079</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -9509,8 +10230,12 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1081</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -9540,7 +10265,9 @@
     <row r="32" spans="1:28">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>1082</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>

--- a/歌单.xlsx
+++ b/歌单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31391" windowHeight="14400" activeTab="3"/>
+    <workbookView windowWidth="31391" windowHeight="13811"/>
   </bookViews>
   <sheets>
     <sheet name="男歌手" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="1082">
   <si>
     <t>港台</t>
   </si>
@@ -1400,7 +1400,7 @@
     <t>时间都去哪了</t>
   </si>
   <si>
-    <t>吴青峰</t>
+    <t>买辣椒也用券</t>
   </si>
   <si>
     <t>起风了</t>
@@ -1424,12 +1424,6 @@
     <t>不再联系</t>
   </si>
   <si>
-    <t>谢帝</t>
-  </si>
-  <si>
-    <t>老子明天不上班</t>
-  </si>
-  <si>
     <t>许冠杰</t>
   </si>
   <si>
@@ -1488,6 +1482,9 @@
   </si>
   <si>
     <t>无赖</t>
+  </si>
+  <si>
+    <t>马頔</t>
   </si>
   <si>
     <t>南山南</t>
@@ -3279,7 +3276,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3297,6 +3294,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3760,10 +3763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3772,34 +3775,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3811,94 +3811,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3927,9 +3930,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3952,6 +3952,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4302,925 +4305,925 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BE113"/>
+  <dimension ref="A1:BE112"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.99115044247788" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.0973451327434" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.4690265486726" style="13" customWidth="1"/>
-    <col min="4" max="4" width="27.1061946902655" style="13" customWidth="1"/>
-    <col min="5" max="5" width="20.4690265486726" style="13" customWidth="1"/>
-    <col min="6" max="6" width="18.2743362831858" style="13" customWidth="1"/>
-    <col min="7" max="7" width="16.0442477876106" style="13" customWidth="1"/>
-    <col min="8" max="11" width="11.5044247787611" style="13" customWidth="1"/>
-    <col min="12" max="12" width="20.4690265486726" style="13" customWidth="1"/>
-    <col min="13" max="13" width="9.4070796460177" style="13" customWidth="1"/>
-    <col min="14" max="14" width="11.5044247787611" style="13" customWidth="1"/>
-    <col min="15" max="15" width="13.716814159292" style="13" customWidth="1"/>
-    <col min="16" max="16" width="9.4070796460177" style="13" customWidth="1"/>
-    <col min="17" max="17" width="16.0442477876106" style="13" customWidth="1"/>
-    <col min="18" max="19" width="9.4070796460177" style="13" customWidth="1"/>
-    <col min="20" max="20" width="11.5044247787611" style="13" customWidth="1"/>
-    <col min="21" max="21" width="7.41592920353982" style="13" customWidth="1"/>
-    <col min="22" max="23" width="13.716814159292" style="13" customWidth="1"/>
-    <col min="24" max="24" width="9.4070796460177" style="13" customWidth="1"/>
-    <col min="25" max="25" width="7.41592920353982" style="13" customWidth="1"/>
-    <col min="26" max="26" width="11.5044247787611" style="13" customWidth="1"/>
-    <col min="27" max="31" width="9.4070796460177" style="13" customWidth="1"/>
-    <col min="32" max="32" width="20.4690265486726" style="13" customWidth="1"/>
-    <col min="33" max="33" width="18.2566371681416" style="13" customWidth="1"/>
-    <col min="34" max="34" width="11.5044247787611" style="13" customWidth="1"/>
-    <col min="35" max="35" width="9.4070796460177" style="13" customWidth="1"/>
-    <col min="36" max="37" width="7.41592920353982" style="13" customWidth="1"/>
-    <col min="38" max="38" width="11.5044247787611" style="13" customWidth="1"/>
-    <col min="39" max="39" width="7.41592920353982" style="13" customWidth="1"/>
-    <col min="40" max="40" width="6.53982300884956" style="13" customWidth="1"/>
-    <col min="41" max="41" width="4.53982300884956" style="13" customWidth="1"/>
-    <col min="42" max="42" width="6.53982300884956" style="13" customWidth="1"/>
-    <col min="43" max="43" width="8.53097345132743" style="13" customWidth="1"/>
-    <col min="44" max="44" width="4.53982300884956" style="13" customWidth="1"/>
-    <col min="45" max="46" width="6.53982300884956" style="13" customWidth="1"/>
-    <col min="47" max="47" width="4.53982300884956" style="13" customWidth="1"/>
-    <col min="48" max="49" width="8.53097345132743" style="13" customWidth="1"/>
-    <col min="50" max="50" width="6.53982300884956" style="13" customWidth="1"/>
-    <col min="51" max="53" width="8.53097345132743" style="13" customWidth="1"/>
-    <col min="54" max="54" width="6.64601769911504" style="13" customWidth="1"/>
-    <col min="55" max="56" width="4.53982300884956" style="13" customWidth="1"/>
-    <col min="57" max="57" width="6.53982300884956" style="13" customWidth="1"/>
-    <col min="58" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="7.99115044247788" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.0973451327434" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.1061946902655" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18.2743362831858" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.0442477876106" style="12" customWidth="1"/>
+    <col min="8" max="11" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="12" max="12" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="14" max="14" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="15" max="15" width="13.716814159292" style="12" customWidth="1"/>
+    <col min="16" max="16" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="17" max="17" width="16.0442477876106" style="12" customWidth="1"/>
+    <col min="18" max="19" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="20" max="20" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="21" max="21" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="22" max="23" width="13.716814159292" style="12" customWidth="1"/>
+    <col min="24" max="24" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="25" max="25" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="26" max="26" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="27" max="31" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="32" max="32" width="20.4690265486726" style="12" customWidth="1"/>
+    <col min="33" max="33" width="18.2566371681416" style="12" customWidth="1"/>
+    <col min="34" max="34" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="35" max="35" width="9.4070796460177" style="12" customWidth="1"/>
+    <col min="36" max="37" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="38" max="38" width="11.5044247787611" style="12" customWidth="1"/>
+    <col min="39" max="39" width="7.41592920353982" style="12" customWidth="1"/>
+    <col min="40" max="40" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="41" max="41" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="42" max="42" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="43" max="43" width="8.53097345132743" style="12" customWidth="1"/>
+    <col min="44" max="44" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="45" max="46" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="47" max="47" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="48" max="49" width="8.53097345132743" style="12" customWidth="1"/>
+    <col min="50" max="50" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="51" max="53" width="8.53097345132743" style="12" customWidth="1"/>
+    <col min="54" max="54" width="6.64601769911504" style="12" customWidth="1"/>
+    <col min="55" max="56" width="4.53982300884956" style="12" customWidth="1"/>
+    <col min="57" max="57" width="6.53982300884956" style="12" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="4"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4"/>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4"/>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4"/>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4"/>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4"/>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:57">
       <c r="A38" s="4"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="O38" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="P38" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="Q38" s="13" t="s">
+      <c r="Q38" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="U38" s="13" t="s">
+      <c r="U38" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="V38" s="13" t="s">
+      <c r="V38" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="W38" s="13" t="s">
+      <c r="W38" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="X38" s="13" t="s">
+      <c r="X38" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Y38" s="13" t="s">
+      <c r="Y38" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="Z38" s="13" t="s">
+      <c r="Z38" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="AA38" s="13" t="s">
+      <c r="AA38" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AB38" s="13" t="s">
+      <c r="AB38" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AC38" s="13" t="s">
+      <c r="AC38" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AD38" s="13" t="s">
+      <c r="AD38" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="AE38" s="13" t="s">
+      <c r="AE38" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="AF38" s="13" t="s">
+      <c r="AF38" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="AG38" s="13" t="s">
+      <c r="AG38" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="AH38" s="13" t="s">
+      <c r="AH38" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="AI38" s="13" t="s">
+      <c r="AI38" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="AJ38" s="13" t="s">
+      <c r="AJ38" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="AK38" s="13" t="s">
+      <c r="AK38" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="AL38" s="13" t="s">
+      <c r="AL38" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="AM38" s="13" t="s">
+      <c r="AM38" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="AN38" s="13" t="s">
+      <c r="AN38" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="AO38" s="13" t="s">
+      <c r="AO38" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AP38" s="13" t="s">
+      <c r="AP38" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="AQ38" s="13" t="s">
+      <c r="AQ38" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="AR38" s="13" t="s">
+      <c r="AR38" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="AS38" s="13" t="s">
+      <c r="AS38" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="AT38" s="13" t="s">
+      <c r="AT38" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="AU38" s="13" t="s">
+      <c r="AU38" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="AV38" s="13" t="s">
+      <c r="AV38" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="AW38" s="13" t="s">
+      <c r="AW38" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="AX38" s="13" t="s">
+      <c r="AX38" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="AY38" s="13" t="s">
+      <c r="AY38" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="AZ38" s="13" t="s">
+      <c r="AZ38" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="BA38" s="13" t="s">
+      <c r="BA38" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="BB38" s="13" t="s">
+      <c r="BB38" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="BC38" s="13" t="s">
+      <c r="BC38" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="BD38" s="13" t="s">
+      <c r="BD38" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="BE38" s="13" t="s">
+      <c r="BE38" s="12" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5228,547 +5231,547 @@
       <c r="A40" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4"/>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4"/>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4"/>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4"/>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4"/>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4"/>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4"/>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4"/>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4"/>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4"/>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4"/>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="12" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="J57" s="13" t="s">
+      <c r="J57" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="K57" s="13" t="s">
+      <c r="K57" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4"/>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4"/>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="H59" s="12" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4"/>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="4"/>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="K61" s="13" t="s">
+      <c r="K61" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="L61" s="13" t="s">
+      <c r="L61" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="M61" s="13" t="s">
+      <c r="M61" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="N61" s="13" t="s">
+      <c r="N61" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="O61" s="13" t="s">
+      <c r="O61" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="P61" s="13" t="s">
+      <c r="P61" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="Q61" s="13" t="s">
+      <c r="Q61" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="R61" s="13" t="s">
+      <c r="R61" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="S61" s="13" t="s">
+      <c r="S61" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="T61" s="13" t="s">
+      <c r="T61" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="U61" s="13" t="s">
+      <c r="U61" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="V61" s="13" t="s">
+      <c r="V61" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="W61" s="13" t="s">
+      <c r="W61" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="X61" s="13" t="s">
+      <c r="X61" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="Y61" s="13" t="s">
+      <c r="Y61" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="Z61" s="13" t="s">
+      <c r="Z61" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="AA61" s="13" t="s">
+      <c r="AA61" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="AB61" s="13" t="s">
+      <c r="AB61" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="AC61" s="13" t="s">
+      <c r="AC61" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AD61" s="13" t="s">
+      <c r="AD61" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="AE61" s="13" t="s">
+      <c r="AE61" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="AF61" s="13" t="s">
+      <c r="AF61" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="AG61" s="13" t="s">
+      <c r="AG61" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="AH61" s="13" t="s">
+      <c r="AH61" s="12" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4"/>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="I64" s="13" t="s">
+      <c r="I64" s="12" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4"/>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4"/>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4"/>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5776,289 +5779,289 @@
       <c r="A69" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="16" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4"/>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="14" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="14" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4"/>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4"/>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="14" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4"/>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4"/>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="14" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4"/>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="14" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4"/>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4"/>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4"/>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="14" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4"/>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="14" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4"/>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="14" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4"/>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="14" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4"/>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="14" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4"/>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="14" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4"/>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="14" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4"/>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="14" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4"/>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="14" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4"/>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="14" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4"/>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="14" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4"/>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="14" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4"/>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="14" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4"/>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="14" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4"/>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4"/>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="14" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4"/>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="14" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4"/>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="14" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4"/>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="14" t="s">
         <v>465</v>
       </c>
     </row>
@@ -6067,114 +6070,107 @@
       <c r="B101" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="9" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4"/>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="4"/>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="14" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="4"/>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="14" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4"/>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="14" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4"/>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="14" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4"/>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="14" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4"/>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="14" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4"/>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="14" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4"/>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="14" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4"/>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="14" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4"/>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="14" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6184,7 +6180,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A38"/>
     <mergeCell ref="A40:A67"/>
-    <mergeCell ref="A69:A113"/>
+    <mergeCell ref="A69:A112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6197,7 +6193,7 @@
   <sheetPr/>
   <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
@@ -6224,448 +6220,448 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" t="s">
         <v>491</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>492</v>
-      </c>
-      <c r="D1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" t="s">
         <v>494</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>495</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>496</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>497</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>498</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>499</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>500</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>501</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>502</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>503</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>504</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>505</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>507</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>508</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>509</v>
-      </c>
-      <c r="R2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" t="s">
         <v>511</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>512</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>513</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>514</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>515</v>
-      </c>
-      <c r="G3" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" t="s">
         <v>517</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>518</v>
-      </c>
-      <c r="D4" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" t="s">
         <v>520</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>521</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>522</v>
-      </c>
-      <c r="E5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" t="s">
         <v>524</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>525</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>526</v>
-      </c>
-      <c r="E6" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" t="s">
         <v>528</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>529</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>530</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>531</v>
-      </c>
-      <c r="F7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C8" t="s">
         <v>533</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>534</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>535</v>
-      </c>
-      <c r="E8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" t="s">
         <v>537</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>538</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>539</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>540</v>
-      </c>
-      <c r="F9" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" t="s">
         <v>542</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>543</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>544</v>
-      </c>
-      <c r="E10" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" t="s">
         <v>546</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>547</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>548</v>
-      </c>
-      <c r="E11" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" t="s">
         <v>550</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>551</v>
-      </c>
-      <c r="D12" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C13" t="s">
         <v>553</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>554</v>
-      </c>
-      <c r="D13" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>557</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" t="s">
         <v>559</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>560</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>561</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>562</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>563</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>564</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>565</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>566</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>567</v>
-      </c>
-      <c r="K15" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C16" t="s">
         <v>569</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>570</v>
-      </c>
-      <c r="D16" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C17" t="s">
         <v>572</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>573</v>
-      </c>
-      <c r="D17" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" t="s">
         <v>575</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>576</v>
-      </c>
-      <c r="D18" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" t="s">
         <v>578</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>579</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>580</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>581</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>582</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>583</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>584</v>
-      </c>
-      <c r="I19" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C20" t="s">
         <v>586</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>587</v>
-      </c>
-      <c r="D20" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C21" t="s">
         <v>589</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>590</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>591</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>592</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>593</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>594</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>595</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>596</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>597</v>
-      </c>
-      <c r="K21" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C22" t="s">
         <v>599</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>600</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>601</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>602</v>
-      </c>
-      <c r="F22" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" t="s">
         <v>604</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>605</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>606</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>607</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>608</v>
-      </c>
-      <c r="G23" t="s">
-        <v>609</v>
       </c>
       <c r="H23" t="s">
         <v>45</v>
       </c>
       <c r="I23" t="s">
+        <v>609</v>
+      </c>
+      <c r="J23" t="s">
         <v>610</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>611</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>612</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>613</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>614</v>
-      </c>
-      <c r="N23" t="s">
-        <v>615</v>
       </c>
       <c r="O23" t="s">
         <v>275</v>
@@ -6674,373 +6670,373 @@
     <row r="24" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" t="s">
         <v>616</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>617</v>
-      </c>
-      <c r="D24" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C25" t="s">
         <v>619</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>620</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>621</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>622</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>623</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>624</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>625</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>626</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>627</v>
-      </c>
-      <c r="K25" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" t="s">
         <v>629</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>630</v>
-      </c>
-      <c r="D26" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" t="s">
         <v>632</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>633</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>634</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>635</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>636</v>
-      </c>
-      <c r="G27" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C28" t="s">
         <v>638</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>639</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>640</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>641</v>
-      </c>
-      <c r="F28" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C29" t="s">
         <v>643</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>644</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>645</v>
-      </c>
-      <c r="E29" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C30" t="s">
         <v>647</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>648</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>649</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>650</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>651</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>652</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>653</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>654</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>655</v>
-      </c>
-      <c r="K30" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C32" t="s">
         <v>657</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>658</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>659</v>
-      </c>
-      <c r="E32" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="33" ht="13" customHeight="1" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C33" t="s">
         <v>661</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>662</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>663</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>664</v>
-      </c>
-      <c r="F33" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C34" t="s">
         <v>666</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>667</v>
-      </c>
-      <c r="D34" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C35" t="s">
         <v>669</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>670</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>671</v>
-      </c>
-      <c r="E35" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C36" t="s">
         <v>673</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>674</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>675</v>
-      </c>
-      <c r="E36" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C37" t="s">
         <v>677</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>678</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>679</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>680</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>681</v>
-      </c>
-      <c r="G37" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C38" t="s">
         <v>683</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>684</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>685</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>686</v>
-      </c>
-      <c r="F38" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C39" t="s">
         <v>688</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>689</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>690</v>
-      </c>
-      <c r="E39" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C40" t="s">
         <v>692</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>693</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>694</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>695</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>696</v>
-      </c>
-      <c r="G40" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C41" t="s">
         <v>698</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>699</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>700</v>
-      </c>
-      <c r="E41" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C42" t="s">
         <v>702</v>
-      </c>
-      <c r="C42" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C43" t="s">
         <v>704</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>705</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>706</v>
-      </c>
-      <c r="E43" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C44" t="s">
         <v>708</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>709</v>
-      </c>
-      <c r="D44" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C45" t="s">
         <v>711</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>712</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>713</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>714</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>715</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>716</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>717</v>
-      </c>
-      <c r="I45" t="s">
-        <v>718</v>
       </c>
       <c r="J45" t="s">
         <v>25</v>
@@ -7052,834 +7048,834 @@
     <row r="46" spans="1:4">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" t="s">
         <v>719</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>720</v>
-      </c>
-      <c r="D46" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C47" t="s">
         <v>722</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>723</v>
-      </c>
-      <c r="D47" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48" t="s">
         <v>725</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>726</v>
-      </c>
-      <c r="D48" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C49" t="s">
         <v>728</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>729</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>730</v>
-      </c>
-      <c r="E49" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C50" t="s">
         <v>732</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>733</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>734</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>735</v>
-      </c>
-      <c r="F50" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C51" t="s">
         <v>737</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>738</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>739</v>
-      </c>
-      <c r="E51" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C52" t="s">
         <v>741</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>742</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>743</v>
-      </c>
-      <c r="E52" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" t="s">
         <v>746</v>
-      </c>
-      <c r="C54" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C55" t="s">
         <v>748</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>749</v>
-      </c>
-      <c r="D55" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="C56" t="s">
         <v>751</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>752</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>753</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>754</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>755</v>
-      </c>
-      <c r="G56" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C57" t="s">
         <v>757</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>758</v>
-      </c>
-      <c r="D57" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="C58" t="s">
         <v>760</v>
-      </c>
-      <c r="C58" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C59" t="s">
         <v>762</v>
-      </c>
-      <c r="C59" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="C60" t="s">
         <v>764</v>
-      </c>
-      <c r="C60" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C61" t="s">
         <v>766</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>767</v>
-      </c>
-      <c r="D61" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C62" t="s">
         <v>769</v>
-      </c>
-      <c r="C62" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C63" t="s">
         <v>771</v>
-      </c>
-      <c r="C63" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C64" t="s">
         <v>773</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>774</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>775</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>776</v>
-      </c>
-      <c r="F64" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C65" t="s">
         <v>778</v>
-      </c>
-      <c r="C65" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4"/>
       <c r="B66" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C66" t="s">
         <v>780</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>781</v>
-      </c>
-      <c r="D66" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C67" t="s">
         <v>783</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>784</v>
-      </c>
-      <c r="D67" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="C68" t="s">
         <v>786</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B71" s="5" t="s">
+      <c r="C71" t="s">
         <v>788</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="5" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="11"/>
-      <c r="B72" s="5" t="s">
+      <c r="C72" t="s">
         <v>790</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="5" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="5" t="s">
+      <c r="C73" t="s">
         <v>792</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="5" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="5" t="s">
+      <c r="C74" t="s">
         <v>794</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="5" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="5" t="s">
+      <c r="C75" t="s">
         <v>796</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="5" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="11"/>
-      <c r="B76" s="5" t="s">
+      <c r="C76" t="s">
         <v>798</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="5" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="5" t="s">
+      <c r="C77" t="s">
         <v>800</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="5" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="11"/>
-      <c r="B78" s="5" t="s">
+      <c r="C78" t="s">
         <v>802</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="5" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="5" t="s">
+      <c r="C79" t="s">
         <v>804</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="C80" s="13" t="s">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="5" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="5" t="s">
+      <c r="C81" t="s">
         <v>808</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="10"/>
+      <c r="B82" s="5" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="5" t="s">
+      <c r="C82" t="s">
         <v>810</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="5" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="5" t="s">
+      <c r="C83" t="s">
         <v>812</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="5" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="5" t="s">
+      <c r="C84" t="s">
         <v>814</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="5" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="5" t="s">
+      <c r="C85" t="s">
         <v>816</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="5" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="5" t="s">
+      <c r="C86" t="s">
         <v>818</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="10"/>
+      <c r="B87" s="5" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="5" t="s">
+      <c r="C87" t="s">
         <v>820</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="10"/>
+      <c r="B88" s="5" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="5" t="s">
+      <c r="C88" t="s">
         <v>822</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="5" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="5" t="s">
+      <c r="C89" t="s">
         <v>824</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="5" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="5" t="s">
+      <c r="C90" t="s">
         <v>826</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="5" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="5" t="s">
+      <c r="C91" t="s">
         <v>828</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C92" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="11"/>
-      <c r="B92" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="C92" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="5" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="5" t="s">
+      <c r="C93" t="s">
         <v>831</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="5" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="11"/>
-      <c r="B94" s="5" t="s">
+      <c r="C94" t="s">
         <v>833</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="5" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="5" t="s">
+      <c r="C95" t="s">
         <v>835</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="10"/>
+      <c r="B96" s="5" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="5" t="s">
+      <c r="C96" t="s">
         <v>837</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="5" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="5" t="s">
+      <c r="C97" t="s">
         <v>839</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="10"/>
+      <c r="B98" s="5" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="11"/>
-      <c r="B98" s="5" t="s">
+      <c r="C98" t="s">
         <v>841</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="10"/>
+      <c r="B99" s="5" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="5" t="s">
+      <c r="C99" t="s">
         <v>843</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="5" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="11"/>
-      <c r="B100" s="5" t="s">
+      <c r="C100" t="s">
         <v>845</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="10"/>
+      <c r="B101" s="5" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="11"/>
-      <c r="B101" s="5" t="s">
+      <c r="C101" t="s">
         <v>847</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>848</v>
       </c>
-      <c r="D101" t="s">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="10"/>
+      <c r="B102" s="5" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="11"/>
-      <c r="B102" s="5" t="s">
+      <c r="C102" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="C102" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="11"/>
-      <c r="B103" s="5" t="s">
+      <c r="C103" t="s">
         <v>851</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="10"/>
+      <c r="B104" s="5" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="11"/>
-      <c r="B104" s="5" t="s">
+      <c r="C104" t="s">
         <v>853</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="10"/>
+      <c r="B105" s="5" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="11"/>
-      <c r="B105" s="5" t="s">
+      <c r="C105" t="s">
         <v>855</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="10"/>
+      <c r="B106" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C106" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="5" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="C106" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="5" t="s">
+      <c r="C107" t="s">
         <v>857</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="5" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="11"/>
-      <c r="B108" s="5" t="s">
+      <c r="C108" t="s">
         <v>859</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="10"/>
+      <c r="B109" s="5" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="11"/>
-      <c r="B109" s="5" t="s">
+      <c r="C109" t="s">
         <v>861</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="10"/>
+      <c r="B110" s="5" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="11"/>
-      <c r="B110" s="5" t="s">
+      <c r="C110" t="s">
         <v>863</v>
       </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="10"/>
+      <c r="B111" s="5" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="11"/>
-      <c r="B111" s="5" t="s">
+      <c r="C111" t="s">
         <v>865</v>
       </c>
-      <c r="C111" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="10"/>
+      <c r="B112" s="5" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="5" t="s">
+      <c r="C112" t="s">
         <v>867</v>
       </c>
-      <c r="C112" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="10"/>
+      <c r="B113" s="5" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="5" t="s">
+      <c r="C113" t="s">
         <v>869</v>
       </c>
-      <c r="C113" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="10"/>
+      <c r="B114" s="5" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="11"/>
-      <c r="B114" s="5" t="s">
+      <c r="C114" t="s">
         <v>871</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="5" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="11"/>
-      <c r="B115" s="5" t="s">
+      <c r="C115" t="s">
         <v>873</v>
       </c>
-      <c r="C115" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="5" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="11"/>
-      <c r="B116" s="5" t="s">
+      <c r="C116" t="s">
         <v>875</v>
       </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="10"/>
+      <c r="B117" s="5" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="11"/>
-      <c r="B117" s="5" t="s">
+      <c r="C117" t="s">
         <v>877</v>
       </c>
-      <c r="C117" t="s">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="10"/>
+      <c r="B118" s="5" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="11"/>
-      <c r="B118" s="5" t="s">
+      <c r="C118" t="s">
         <v>879</v>
       </c>
-      <c r="C118" t="s">
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="10"/>
+      <c r="B119" s="5" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="5" t="s">
+      <c r="C119" t="s">
         <v>881</v>
       </c>
-      <c r="C119" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="10"/>
+      <c r="B120" s="5" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="11"/>
-      <c r="B120" s="5" t="s">
+      <c r="C120" t="s">
         <v>883</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="5" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="11"/>
-      <c r="B121" s="5" t="s">
+      <c r="C121" t="s">
         <v>885</v>
       </c>
-      <c r="C121" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="10"/>
+      <c r="B122" s="5" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="11"/>
-      <c r="B122" s="5" t="s">
+      <c r="C122" t="s">
         <v>887</v>
       </c>
-      <c r="C122" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="10"/>
+      <c r="B123" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="11"/>
-      <c r="B123" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="10" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="10"/>
+      <c r="B124" s="5" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="11"/>
-      <c r="B124" s="5" t="s">
+      <c r="C124" t="s">
         <v>890</v>
       </c>
-      <c r="C124" t="s">
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="10"/>
+      <c r="B125" s="5" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="11"/>
-      <c r="B125" s="5" t="s">
+      <c r="C125" t="s">
         <v>892</v>
       </c>
-      <c r="C125" t="s">
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="10"/>
+      <c r="B126" s="5" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="11"/>
-      <c r="B126" s="5" t="s">
+      <c r="C126" t="s">
         <v>894</v>
       </c>
-      <c r="C126" t="s">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="10"/>
+      <c r="B127" s="5" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="11"/>
-      <c r="B127" s="5" t="s">
+      <c r="C127" t="s">
         <v>896</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="10"/>
+      <c r="B128" s="5" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="11"/>
-      <c r="B128" s="5" t="s">
+      <c r="C128" t="s">
         <v>898</v>
       </c>
-      <c r="C128" t="s">
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="10"/>
+      <c r="B129" s="5" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="11"/>
-      <c r="B129" s="5" t="s">
+      <c r="C129" t="s">
         <v>900</v>
       </c>
-      <c r="C129" t="s">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="10"/>
+      <c r="B130" s="5" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="11"/>
-      <c r="B130" s="5" t="s">
+      <c r="C130" t="s">
         <v>902</v>
       </c>
-      <c r="C130" t="s">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="10"/>
+      <c r="B131" s="5" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="11"/>
-      <c r="B131" s="5" t="s">
+      <c r="C131" t="s">
         <v>904</v>
       </c>
-      <c r="C131" t="s">
-        <v>905</v>
-      </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="11"/>
+      <c r="A132" s="10"/>
       <c r="B132" s="5"/>
       <c r="C132" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -7922,11 +7918,11 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:20">
-      <c r="A1" s="8">
+      <c r="A1" s="5">
         <v>5566</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7949,22 +7945,22 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7983,10 +7979,10 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -8009,13 +8005,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8037,31 +8033,31 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -8077,10 +8073,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -8103,13 +8099,13 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -8131,10 +8127,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -8157,10 +8153,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>306</v>
@@ -8185,22 +8181,22 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8219,10 +8215,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -8245,16 +8241,16 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -8275,10 +8271,10 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -8301,13 +8297,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -8329,10 +8325,10 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -8355,16 +8351,16 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -8385,10 +8381,10 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8411,10 +8407,10 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8437,10 +8433,10 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8463,10 +8459,10 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8489,19 +8485,19 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -8521,16 +8517,16 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>975</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -8551,13 +8547,13 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -8579,13 +8575,13 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -8607,31 +8603,31 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -8647,13 +8643,13 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>992</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -8675,13 +8671,13 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8703,13 +8699,13 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8731,10 +8727,10 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -8896,8 +8892,8 @@
   <sheetPr/>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88495575221239" defaultRowHeight="15"/>
@@ -8912,121 +8908,121 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" t="s">
         <v>1002</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1003</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1004</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1005</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1006</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1007</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1008</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C2" t="s">
         <v>1010</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C4" t="s">
         <v>1013</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C5" t="s">
         <v>1015</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1016</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C6" t="s">
         <v>1018</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C7" t="s">
         <v>1020</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C8" t="s">
         <v>1022</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C9" t="s">
         <v>1024</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C11" t="s">
         <v>315</v>
@@ -9035,19 +9031,19 @@
     <row r="12" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C12" t="s">
         <v>1029</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C13" t="s">
         <v>1031</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9056,76 +9052,76 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" t="s">
         <v>1034</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C20" t="s">
         <v>1036</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1037</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C21" t="s">
         <v>1039</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>1040</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C22" t="s">
         <v>1042</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>1043</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C23" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C24" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C25" t="s">
         <v>1046</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9138,94 +9134,94 @@
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C27" t="s">
         <v>1048</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C29" t="s">
         <v>1051</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C30" t="s">
         <v>1053</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C31" t="s">
         <v>1055</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D32" t="s">
         <v>1057</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C33" t="s">
         <v>1059</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C34" t="s">
         <v>1061</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C35" t="s">
         <v>1063</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>1064</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C36" t="s">
         <v>1066</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9242,10 +9238,10 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B49" t="s">
         <v>1068</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -9310,10 +9306,10 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -9554,7 +9550,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -9796,7 +9792,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -10098,13 +10094,13 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -10135,7 +10131,7 @@
     <row r="28" spans="1:28">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10167,7 +10163,7 @@
     <row r="29" spans="1:28">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10200,7 +10196,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -10231,10 +10227,10 @@
     <row r="31" spans="1:28">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -10266,7 +10262,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
